--- a/Community/Forage_Fish_Beach_Survey.xlsx
+++ b/Community/Forage_Fish_Beach_Survey.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchell\Documents\Survey123 Samples and Templates\Community Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\applications\Survey123templates\Survey123Community\Community\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13180" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8060" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1072">
   <si>
     <t>type</t>
   </si>
@@ -3214,6 +3214,30 @@
   </si>
   <si>
     <t>XMLVALIDATE</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>Applies to integer and decimal fields. Displays a custom calculator widget.</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>Applies to groups and repeats. The question group will start off collapsed, instead of expanded.</t>
+  </si>
+  <si>
+    <t>minimal compact</t>
+  </si>
+  <si>
+    <t>Applies to repeats. Applie sboth horizontal and compact appearance types simultaneously.</t>
+  </si>
+  <si>
+    <t>esriFieldTypeGUID</t>
+  </si>
+  <si>
+    <t>Globally Unique Identifier</t>
   </si>
 </sst>
 </file>
@@ -3525,7 +3549,71 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet3" xfId="9"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3669,18 +3757,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:X236"/>
   <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="5"/>
-    <tableColumn id="4" name="hint" dataDxfId="4"/>
+    <tableColumn id="3" name="label" dataDxfId="13"/>
+    <tableColumn id="4" name="hint" dataDxfId="12"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="3"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="11"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
-    <tableColumn id="8" name="appearance" dataDxfId="2"/>
+    <tableColumn id="8" name="appearance" dataDxfId="10"/>
     <tableColumn id="9" name="default"/>
     <tableColumn id="11" name="readonly"/>
     <tableColumn id="10" name="relevant"/>
@@ -4011,7 +4099,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4053,7 +4141,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4076,8 +4164,8 @@
   <dimension ref="A1:AF236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.453125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5710,6 +5798,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <dataConsolidate/>
   <conditionalFormatting sqref="B2">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
@@ -5720,7 +5809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B233">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C1048576"/>
@@ -5774,13 +5863,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$126:$A$130</xm:f>
+            <xm:f>types!$A$129:$A$134</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$47</xm:f>
+            <xm:f>types!$A$35:$A$50</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -6694,9 +6783,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L795"/>
+  <dimension ref="A1:L799"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7403,10 +7492,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
-        <v>449</v>
+        <v>1064</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>450</v>
+        <v>1065</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="34"/>
@@ -7420,10 +7509,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
@@ -7437,10 +7526,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>114</v>
+        <v>451</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
@@ -7454,10 +7543,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>118</v>
+        <v>453</v>
       </c>
       <c r="D46" s="34"/>
       <c r="E46" s="34"/>
@@ -7471,10 +7560,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>454</v>
+        <v>117</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>455</v>
+        <v>118</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
@@ -7487,8 +7576,12 @@
       <c r="L47" s="34"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
+      <c r="A48" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>455</v>
+      </c>
       <c r="D48" s="34"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
@@ -7499,11 +7592,13 @@
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
     </row>
-    <row r="49" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="34"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>1067</v>
+      </c>
       <c r="D49" s="34"/>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
@@ -7516,10 +7611,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>108</v>
+        <v>1068</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>111</v>
+        <v>1069</v>
       </c>
       <c r="D50" s="34"/>
       <c r="E50" s="34"/>
@@ -7532,12 +7627,8 @@
       <c r="L50" s="34"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>110</v>
-      </c>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
@@ -7548,8 +7639,10 @@
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+    <row r="52" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="B52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
@@ -7561,12 +7654,12 @@
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
     </row>
-    <row r="53" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>233</v>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
@@ -7579,9 +7672,11 @@
       <c r="L53" s="34"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="B54" s="34" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
@@ -7593,8 +7688,8 @@
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
     </row>
-    <row r="55" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+    <row r="55" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="5"/>
       <c r="D55" s="34"/>
@@ -7609,30 +7704,25 @@
     </row>
     <row r="56" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>57</v>
+        <v>233</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
@@ -7644,16 +7734,9 @@
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>60</v>
-      </c>
+    <row r="58" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
@@ -7664,35 +7747,32 @@
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>97</v>
+    <row r="59" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
@@ -7706,13 +7786,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
@@ -7726,13 +7806,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
@@ -7746,13 +7826,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D63" s="34"/>
       <c r="E63" s="34"/>
@@ -7766,13 +7846,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
@@ -7786,13 +7866,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
@@ -7806,13 +7886,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
@@ -7826,13 +7906,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
@@ -7846,13 +7926,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
@@ -7866,13 +7946,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D69" s="34"/>
       <c r="E69" s="34"/>
@@ -7886,13 +7966,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D70" s="34"/>
       <c r="E70" s="34"/>
@@ -7906,13 +7986,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
@@ -7925,9 +8005,15 @@
       <c r="L71" s="34"/>
     </row>
     <row r="72" spans="1:12" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="32"/>
+      <c r="A72" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="D72" s="34"/>
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
@@ -7938,30 +8024,36 @@
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
     </row>
-    <row r="73" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-    </row>
-    <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="21"/>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="D74" s="34"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
@@ -7973,12 +8065,9 @@
       <c r="L74" s="34"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>188</v>
-      </c>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="32"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
@@ -7989,30 +8078,30 @@
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>191</v>
-      </c>
+    <row r="76" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="30"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+    </row>
+    <row r="77" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="21"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
@@ -8025,10 +8114,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
@@ -8042,10 +8131,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>194</v>
+        <v>456</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
@@ -8059,10 +8148,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D80" s="34"/>
       <c r="E80" s="34"/>
@@ -8076,10 +8165,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
@@ -8093,10 +8182,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D82" s="34"/>
       <c r="E82" s="34"/>
@@ -8110,10 +8199,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D83" s="34"/>
       <c r="E83" s="34"/>
@@ -8125,12 +8214,12 @@
       <c r="K83" s="34"/>
       <c r="L83" s="34"/>
     </row>
-    <row r="84" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>208</v>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
@@ -8142,12 +8231,12 @@
       <c r="K84" s="34"/>
       <c r="L84" s="34"/>
     </row>
-    <row r="85" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>209</v>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D85" s="34"/>
       <c r="E85" s="34"/>
@@ -8159,12 +8248,12 @@
       <c r="K85" s="34"/>
       <c r="L85" s="34"/>
     </row>
-    <row r="86" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>457</v>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>458</v>
+        <v>202</v>
       </c>
       <c r="D86" s="34"/>
       <c r="E86" s="34"/>
@@ -8176,9 +8265,13 @@
       <c r="K86" s="34"/>
       <c r="L86" s="34"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
+    <row r="87" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="D87" s="34"/>
       <c r="E87" s="34"/>
       <c r="F87" s="34"/>
@@ -8189,11 +8282,13 @@
       <c r="K87" s="34"/>
       <c r="L87" s="34"/>
     </row>
-    <row r="88" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B88" s="34"/>
+    <row r="88" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>207</v>
+      </c>
       <c r="D88" s="34"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
@@ -8204,12 +8299,12 @@
       <c r="K88" s="34"/>
       <c r="L88" s="34"/>
     </row>
-    <row r="89" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>120</v>
+    <row r="89" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>458</v>
       </c>
       <c r="D89" s="34"/>
       <c r="E89" s="34"/>
@@ -8222,12 +8317,8 @@
       <c r="L89" s="34"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>122</v>
-      </c>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
       <c r="F90" s="34"/>
@@ -8238,13 +8329,11 @@
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>124</v>
-      </c>
+    <row r="91" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34"/>
       <c r="F91" s="34"/>
@@ -8255,12 +8344,12 @@
       <c r="K91" s="34"/>
       <c r="L91" s="34"/>
     </row>
-    <row r="92" spans="1:12" ht="25" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>126</v>
+    <row r="92" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D92" s="34"/>
       <c r="E92" s="34"/>
@@ -8274,10 +8363,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D93" s="34"/>
       <c r="E93" s="34"/>
@@ -8291,10 +8380,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D94" s="34"/>
       <c r="E94" s="34"/>
@@ -8306,12 +8395,12 @@
       <c r="K94" s="34"/>
       <c r="L94" s="34"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D95" s="34"/>
       <c r="E95" s="34"/>
@@ -8325,10 +8414,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D96" s="34"/>
       <c r="E96" s="34"/>
@@ -8342,10 +8431,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D97" s="34"/>
       <c r="E97" s="34"/>
@@ -8359,10 +8448,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D98" s="34"/>
       <c r="E98" s="34"/>
@@ -8376,10 +8465,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D99" s="34"/>
       <c r="E99" s="34"/>
@@ -8393,10 +8482,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D100" s="34"/>
       <c r="E100" s="34"/>
@@ -8410,10 +8499,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D101" s="34"/>
       <c r="E101" s="34"/>
@@ -8427,10 +8516,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D102" s="34"/>
       <c r="E102" s="34"/>
@@ -8444,10 +8533,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D103" s="34"/>
       <c r="E103" s="34"/>
@@ -8461,10 +8550,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D104" s="34"/>
       <c r="E104" s="34"/>
@@ -8478,10 +8567,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D105" s="34"/>
       <c r="E105" s="34"/>
@@ -8495,10 +8584,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D106" s="34"/>
       <c r="E106" s="34"/>
@@ -8512,10 +8601,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D107" s="34"/>
       <c r="E107" s="34"/>
@@ -8529,10 +8618,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D108" s="34"/>
       <c r="E108" s="34"/>
@@ -8546,10 +8635,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D109" s="34"/>
       <c r="E109" s="34"/>
@@ -8563,10 +8652,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D110" s="34"/>
       <c r="E110" s="34"/>
@@ -8580,10 +8669,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D111" s="34"/>
       <c r="E111" s="34"/>
@@ -8597,10 +8686,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D112" s="34"/>
       <c r="E112" s="34"/>
@@ -8614,10 +8703,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D113" s="34"/>
       <c r="E113" s="34"/>
@@ -8631,10 +8720,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D114" s="34"/>
       <c r="E114" s="34"/>
@@ -8648,10 +8737,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D115" s="34"/>
       <c r="E115" s="34"/>
@@ -8665,10 +8754,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D116" s="34"/>
       <c r="E116" s="34"/>
@@ -8682,10 +8771,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D117" s="34"/>
       <c r="E117" s="34"/>
@@ -8699,10 +8788,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D118" s="34"/>
       <c r="E118" s="34"/>
@@ -8714,12 +8803,12 @@
       <c r="K118" s="34"/>
       <c r="L118" s="34"/>
     </row>
-    <row r="119" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D119" s="34"/>
       <c r="E119" s="34"/>
@@ -8733,10 +8822,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D120" s="34"/>
       <c r="E120" s="34"/>
@@ -8750,10 +8839,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D121" s="34"/>
       <c r="E121" s="34"/>
@@ -8765,12 +8854,12 @@
       <c r="K121" s="34"/>
       <c r="L121" s="34"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="34"/>
@@ -8784,10 +8873,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D123" s="34"/>
       <c r="E123" s="34"/>
@@ -8800,8 +8889,12 @@
       <c r="L123" s="34"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
+      <c r="A124" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>181</v>
+      </c>
       <c r="D124" s="34"/>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
@@ -8812,11 +8905,13 @@
       <c r="K124" s="34"/>
       <c r="L124" s="34"/>
     </row>
-    <row r="125" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" s="34"/>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>183</v>
+      </c>
       <c r="D125" s="34"/>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
@@ -8829,10 +8924,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="D126" s="34"/>
       <c r="E126" s="34"/>
@@ -8845,12 +8940,8 @@
       <c r="L126" s="34"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="B127" s="34" t="s">
-        <v>225</v>
-      </c>
+      <c r="A127" s="34"/>
+      <c r="B127" s="34"/>
       <c r="D127" s="34"/>
       <c r="E127" s="34"/>
       <c r="F127" s="34"/>
@@ -8861,13 +8952,11 @@
       <c r="K127" s="34"/>
       <c r="L127" s="34"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>226</v>
-      </c>
+    <row r="128" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" s="34"/>
       <c r="D128" s="34"/>
       <c r="E128" s="34"/>
       <c r="F128" s="34"/>
@@ -8880,10 +8969,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="34" t="s">
-        <v>227</v>
+        <v>220</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="D129" s="34"/>
       <c r="E129" s="34"/>
@@ -8897,10 +8986,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="B130" s="30" t="s">
-        <v>460</v>
+        <v>222</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>225</v>
       </c>
       <c r="D130" s="34"/>
       <c r="E130" s="34"/>
@@ -8913,8 +9002,12 @@
       <c r="L130" s="34"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
-      <c r="B131" s="34"/>
+      <c r="A131" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="D131" s="34"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
@@ -8925,11 +9018,13 @@
       <c r="K131" s="34"/>
       <c r="L131" s="34"/>
     </row>
-    <row r="132" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="B132" s="34"/>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>227</v>
+      </c>
       <c r="D132" s="34"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34"/>
@@ -8940,14 +9035,13 @@
       <c r="K132" s="34"/>
       <c r="L132" s="34"/>
     </row>
-    <row r="133" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B133" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="C133" s="38"/>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>460</v>
+      </c>
       <c r="D133" s="34"/>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
@@ -8960,12 +9054,11 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>463</v>
+        <v>1070</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="C134" s="30"/>
+        <v>1071</v>
+      </c>
       <c r="D134" s="34"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
@@ -8977,13 +9070,8 @@
       <c r="L134" s="34"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="B135" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="C135" s="30"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="34"/>
       <c r="D135" s="34"/>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
@@ -8994,14 +9082,11 @@
       <c r="K135" s="34"/>
       <c r="L135" s="34"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="B136" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="C136" s="30"/>
+    <row r="136" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B136" s="34"/>
       <c r="D136" s="34"/>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
@@ -9012,14 +9097,14 @@
       <c r="K136" s="34"/>
       <c r="L136" s="34"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
-        <v>469</v>
-      </c>
-      <c r="B137" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="C137" s="30"/>
+    <row r="137" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A137" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="C137" s="38"/>
       <c r="D137" s="34"/>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
@@ -9032,10 +9117,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C138" s="30"/>
       <c r="D138" s="34"/>
@@ -9050,10 +9135,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C139" s="30"/>
       <c r="D139" s="34"/>
@@ -9068,10 +9153,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C140" s="30"/>
       <c r="D140" s="34"/>
@@ -9086,10 +9171,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C141" s="30"/>
       <c r="D141" s="34"/>
@@ -9104,10 +9189,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C142" s="30"/>
       <c r="D142" s="34"/>
@@ -9122,10 +9207,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C143" s="30"/>
       <c r="D143" s="34"/>
@@ -9140,10 +9225,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C144" s="30"/>
       <c r="D144" s="34"/>
@@ -9158,10 +9243,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C145" s="30"/>
       <c r="D145" s="34"/>
@@ -9176,10 +9261,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C146" s="30"/>
       <c r="D146" s="34"/>
@@ -9194,10 +9279,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C147" s="30"/>
       <c r="D147" s="34"/>
@@ -9212,10 +9297,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C148" s="30"/>
       <c r="D148" s="34"/>
@@ -9230,10 +9315,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C149" s="30"/>
       <c r="D149" s="34"/>
@@ -9248,10 +9333,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C150" s="30"/>
       <c r="D150" s="34"/>
@@ -9266,10 +9351,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C151" s="30"/>
       <c r="D151" s="34"/>
@@ -9283,8 +9368,13 @@
       <c r="L151" s="34"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
+      <c r="A152" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C152" s="30"/>
       <c r="D152" s="34"/>
       <c r="E152" s="34"/>
       <c r="F152" s="34"/>
@@ -9295,13 +9385,14 @@
       <c r="K152" s="34"/>
       <c r="L152" s="34"/>
     </row>
-    <row r="153" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B153" s="34" t="s">
-        <v>500</v>
-      </c>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="C153" s="30"/>
       <c r="D153" s="34"/>
       <c r="E153" s="34"/>
       <c r="F153" s="34"/>
@@ -9313,10 +9404,13 @@
       <c r="L153" s="34"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="B154" s="34"/>
+      <c r="A154" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="C154" s="30"/>
       <c r="D154" s="34"/>
       <c r="E154" s="34"/>
       <c r="F154" s="34"/>
@@ -9328,10 +9422,13 @@
       <c r="L154" s="34"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="39" t="s">
-        <v>502</v>
-      </c>
-      <c r="B155" s="34"/>
+      <c r="A155" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="C155" s="30"/>
       <c r="D155" s="34"/>
       <c r="E155" s="34"/>
       <c r="F155" s="34"/>
@@ -9343,9 +9440,7 @@
       <c r="L155" s="34"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="39" t="s">
-        <v>503</v>
-      </c>
+      <c r="A156" s="34"/>
       <c r="B156" s="34"/>
       <c r="D156" s="34"/>
       <c r="E156" s="34"/>
@@ -9357,11 +9452,13 @@
       <c r="K156" s="34"/>
       <c r="L156" s="34"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B157" s="34"/>
+    <row r="157" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>500</v>
+      </c>
       <c r="D157" s="34"/>
       <c r="E157" s="34"/>
       <c r="F157" s="34"/>
@@ -9374,7 +9471,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B158" s="34"/>
       <c r="D158" s="34"/>
@@ -9389,7 +9486,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="39" t="s">
-        <v>123</v>
+        <v>502</v>
       </c>
       <c r="B159" s="34"/>
       <c r="D159" s="34"/>
@@ -9404,7 +9501,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
-        <v>125</v>
+        <v>503</v>
       </c>
       <c r="B160" s="34"/>
       <c r="D160" s="34"/>
@@ -9419,7 +9516,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="39" t="s">
-        <v>505</v>
+        <v>64</v>
       </c>
       <c r="B161" s="34"/>
       <c r="D161" s="34"/>
@@ -9434,7 +9531,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B162" s="34"/>
       <c r="D162" s="34"/>
@@ -9448,7 +9545,9 @@
       <c r="L162" s="34"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
+      <c r="A163" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="B163" s="34"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34"/>
@@ -9460,13 +9559,11 @@
       <c r="K163" s="34"/>
       <c r="L163" s="34"/>
     </row>
-    <row r="164" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A164" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="B164" s="34" t="s">
-        <v>508</v>
-      </c>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B164" s="34"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34"/>
       <c r="F164" s="34"/>
@@ -9478,8 +9575,8 @@
       <c r="L164" s="34"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="30" t="s">
-        <v>509</v>
+      <c r="A165" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="B165" s="34"/>
       <c r="D165" s="34"/>
@@ -9493,8 +9590,8 @@
       <c r="L165" s="34"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="34" t="s">
-        <v>510</v>
+      <c r="A166" s="39" t="s">
+        <v>506</v>
       </c>
       <c r="B166" s="34"/>
       <c r="D166" s="34"/>
@@ -9508,9 +9605,7 @@
       <c r="L166" s="34"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="34" t="s">
-        <v>511</v>
-      </c>
+      <c r="A167" s="34"/>
       <c r="B167" s="34"/>
       <c r="D167" s="34"/>
       <c r="E167" s="34"/>
@@ -9522,11 +9617,13 @@
       <c r="K167" s="34"/>
       <c r="L167" s="34"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="B168" s="34"/>
+    <row r="168" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B168" s="34" t="s">
+        <v>508</v>
+      </c>
       <c r="D168" s="34"/>
       <c r="E168" s="34"/>
       <c r="F168" s="34"/>
@@ -9538,8 +9635,8 @@
       <c r="L168" s="34"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="34" t="s">
-        <v>513</v>
+      <c r="A169" s="30" t="s">
+        <v>509</v>
       </c>
       <c r="B169" s="34"/>
       <c r="D169" s="34"/>
@@ -9554,7 +9651,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B170" s="34"/>
       <c r="D170" s="34"/>
@@ -9569,7 +9666,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B171" s="34"/>
       <c r="D171" s="34"/>
@@ -9584,7 +9681,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B172" s="34"/>
       <c r="D172" s="34"/>
@@ -9599,7 +9696,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B173" s="34"/>
       <c r="D173" s="34"/>
@@ -9614,7 +9711,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="34" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B174" s="34"/>
       <c r="D174" s="34"/>
@@ -9629,7 +9726,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="34" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B175" s="34"/>
       <c r="D175" s="34"/>
@@ -9644,7 +9741,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="34" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B176" s="34"/>
       <c r="D176" s="34"/>
@@ -9659,7 +9756,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="34" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B177" s="34"/>
       <c r="D177" s="34"/>
@@ -9674,7 +9771,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="34" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B178" s="34"/>
       <c r="D178" s="34"/>
@@ -9689,7 +9786,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B179" s="34"/>
       <c r="D179" s="34"/>
@@ -9704,7 +9801,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B180" s="34"/>
       <c r="D180" s="34"/>
@@ -9719,7 +9816,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B181" s="34"/>
       <c r="D181" s="34"/>
@@ -9734,7 +9831,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="34" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B182" s="34"/>
       <c r="D182" s="34"/>
@@ -9749,7 +9846,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="34" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B183" s="34"/>
       <c r="D183" s="34"/>
@@ -9764,7 +9861,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B184" s="34"/>
       <c r="D184" s="34"/>
@@ -9779,7 +9876,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="34" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B185" s="34"/>
       <c r="D185" s="34"/>
@@ -9794,7 +9891,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="34" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B186" s="34"/>
       <c r="D186" s="34"/>
@@ -9809,7 +9906,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="34" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B187" s="34"/>
       <c r="D187" s="34"/>
@@ -9824,7 +9921,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B188" s="34"/>
       <c r="D188" s="34"/>
@@ -9839,7 +9936,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="34" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B189" s="34"/>
       <c r="D189" s="34"/>
@@ -9854,7 +9951,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="34" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B190" s="34"/>
       <c r="D190" s="34"/>
@@ -9869,7 +9966,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="34" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B191" s="34"/>
       <c r="D191" s="34"/>
@@ -9884,7 +9981,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="34" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B192" s="34"/>
       <c r="D192" s="34"/>
@@ -9899,7 +9996,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="34" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B193" s="34"/>
       <c r="D193" s="34"/>
@@ -9914,7 +10011,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="34" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B194" s="34"/>
       <c r="D194" s="34"/>
@@ -9929,7 +10026,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="34" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B195" s="34"/>
       <c r="D195" s="34"/>
@@ -9944,7 +10041,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="34" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B196" s="34"/>
       <c r="D196" s="34"/>
@@ -9959,7 +10056,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="34" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B197" s="34"/>
       <c r="D197" s="34"/>
@@ -9974,7 +10071,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B198" s="34"/>
       <c r="D198" s="34"/>
@@ -9989,7 +10086,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="34" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B199" s="34"/>
       <c r="D199" s="34"/>
@@ -10004,7 +10101,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="34" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B200" s="34"/>
       <c r="D200" s="34"/>
@@ -10019,7 +10116,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="34" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B201" s="34"/>
       <c r="D201" s="34"/>
@@ -10034,7 +10131,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="34" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B202" s="34"/>
       <c r="D202" s="34"/>
@@ -10049,7 +10146,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="34" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B203" s="34"/>
       <c r="D203" s="34"/>
@@ -10064,7 +10161,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="34" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B204" s="34"/>
       <c r="D204" s="34"/>
@@ -10079,7 +10176,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="34" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B205" s="34"/>
       <c r="D205" s="34"/>
@@ -10094,7 +10191,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="34" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B206" s="34"/>
       <c r="D206" s="34"/>
@@ -10109,7 +10206,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="34" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B207" s="34"/>
       <c r="D207" s="34"/>
@@ -10124,7 +10221,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="34" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B208" s="34"/>
       <c r="D208" s="34"/>
@@ -10139,7 +10236,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="34" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B209" s="34"/>
       <c r="D209" s="34"/>
@@ -10154,7 +10251,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="34" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B210" s="34"/>
       <c r="D210" s="34"/>
@@ -10169,7 +10266,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="34" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B211" s="34"/>
       <c r="D211" s="34"/>
@@ -10184,7 +10281,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="34" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B212" s="34"/>
       <c r="D212" s="34"/>
@@ -10199,7 +10296,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="34" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B213" s="34"/>
       <c r="D213" s="34"/>
@@ -10214,7 +10311,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="34" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B214" s="34"/>
       <c r="D214" s="34"/>
@@ -10229,7 +10326,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="34" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B215" s="34"/>
       <c r="D215" s="34"/>
@@ -10244,7 +10341,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="34" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B216" s="34"/>
       <c r="D216" s="34"/>
@@ -10259,7 +10356,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="34" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B217" s="34"/>
       <c r="D217" s="34"/>
@@ -10274,7 +10371,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="34" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B218" s="34"/>
       <c r="D218" s="34"/>
@@ -10289,7 +10386,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="34" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B219" s="34"/>
       <c r="D219" s="34"/>
@@ -10304,7 +10401,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="34" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B220" s="34"/>
       <c r="D220" s="34"/>
@@ -10319,7 +10416,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="34" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B221" s="34"/>
       <c r="D221" s="34"/>
@@ -10334,7 +10431,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="34" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B222" s="34"/>
       <c r="D222" s="34"/>
@@ -10349,7 +10446,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="34" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B223" s="34"/>
       <c r="D223" s="34"/>
@@ -10364,7 +10461,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="34" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B224" s="34"/>
       <c r="D224" s="34"/>
@@ -10379,7 +10476,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="34" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B225" s="34"/>
       <c r="D225" s="34"/>
@@ -10394,7 +10491,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="34" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B226" s="34"/>
       <c r="D226" s="34"/>
@@ -10409,7 +10506,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="34" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B227" s="34"/>
       <c r="D227" s="34"/>
@@ -10424,7 +10521,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="34" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B228" s="34"/>
       <c r="D228" s="34"/>
@@ -10439,7 +10536,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="34" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B229" s="34"/>
       <c r="D229" s="34"/>
@@ -10454,7 +10551,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="34" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B230" s="34"/>
       <c r="D230" s="34"/>
@@ -10469,7 +10566,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="34" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B231" s="34"/>
       <c r="D231" s="34"/>
@@ -10484,7 +10581,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="34" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B232" s="34"/>
       <c r="D232" s="34"/>
@@ -10499,7 +10596,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="34" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B233" s="34"/>
       <c r="D233" s="34"/>
@@ -10514,7 +10611,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="34" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B234" s="34"/>
       <c r="D234" s="34"/>
@@ -10529,7 +10626,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="34" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B235" s="34"/>
       <c r="D235" s="34"/>
@@ -10544,7 +10641,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="34" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B236" s="34"/>
       <c r="D236" s="34"/>
@@ -10559,7 +10656,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="34" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B237" s="34"/>
       <c r="D237" s="34"/>
@@ -10574,7 +10671,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="34" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B238" s="34"/>
       <c r="D238" s="34"/>
@@ -10589,7 +10686,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="34" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B239" s="34"/>
       <c r="D239" s="34"/>
@@ -10604,7 +10701,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="34" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B240" s="34"/>
       <c r="D240" s="34"/>
@@ -10619,7 +10716,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="34" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B241" s="34"/>
       <c r="D241" s="34"/>
@@ -10634,7 +10731,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="34" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B242" s="34"/>
       <c r="D242" s="34"/>
@@ -10649,7 +10746,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="34" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B243" s="34"/>
       <c r="D243" s="34"/>
@@ -10664,7 +10761,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="34" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B244" s="34"/>
       <c r="D244" s="34"/>
@@ -10679,7 +10776,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="34" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B245" s="34"/>
       <c r="D245" s="34"/>
@@ -10694,7 +10791,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="34" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B246" s="34"/>
       <c r="D246" s="34"/>
@@ -10709,7 +10806,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="34" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B247" s="34"/>
       <c r="D247" s="34"/>
@@ -10724,7 +10821,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B248" s="34"/>
       <c r="D248" s="34"/>
@@ -10739,7 +10836,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="34" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B249" s="34"/>
       <c r="D249" s="34"/>
@@ -10754,7 +10851,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="34" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B250" s="34"/>
       <c r="D250" s="34"/>
@@ -10769,7 +10866,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="34" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B251" s="34"/>
       <c r="D251" s="34"/>
@@ -10784,7 +10881,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="34" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B252" s="34"/>
       <c r="D252" s="34"/>
@@ -10799,7 +10896,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="34" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B253" s="34"/>
       <c r="D253" s="34"/>
@@ -10814,7 +10911,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="34" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B254" s="34"/>
       <c r="D254" s="34"/>
@@ -10829,7 +10926,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="34" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B255" s="34"/>
       <c r="D255" s="34"/>
@@ -10844,7 +10941,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="34" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B256" s="34"/>
       <c r="D256" s="34"/>
@@ -10859,7 +10956,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="34" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B257" s="34"/>
       <c r="D257" s="34"/>
@@ -10874,7 +10971,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="34" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B258" s="34"/>
       <c r="D258" s="34"/>
@@ -10889,7 +10986,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="34" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B259" s="34"/>
       <c r="D259" s="34"/>
@@ -10904,7 +11001,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B260" s="34"/>
       <c r="D260" s="34"/>
@@ -10919,7 +11016,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="34" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B261" s="34"/>
       <c r="D261" s="34"/>
@@ -10934,7 +11031,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B262" s="34"/>
       <c r="D262" s="34"/>
@@ -10949,7 +11046,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="34" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B263" s="34"/>
       <c r="D263" s="34"/>
@@ -10964,7 +11061,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B264" s="34"/>
       <c r="D264" s="34"/>
@@ -10979,7 +11076,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="34" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B265" s="34"/>
       <c r="D265" s="34"/>
@@ -10994,7 +11091,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="34" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B266" s="34"/>
       <c r="D266" s="34"/>
@@ -11009,7 +11106,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="34" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B267" s="34"/>
       <c r="D267" s="34"/>
@@ -11024,7 +11121,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="34" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B268" s="34"/>
       <c r="D268" s="34"/>
@@ -11039,7 +11136,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="34" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B269" s="34"/>
       <c r="D269" s="34"/>
@@ -11054,7 +11151,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="34" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B270" s="34"/>
       <c r="D270" s="34"/>
@@ -11069,7 +11166,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="34" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B271" s="34"/>
       <c r="D271" s="34"/>
@@ -11084,7 +11181,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="34" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B272" s="34"/>
       <c r="D272" s="34"/>
@@ -11099,7 +11196,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="34" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B273" s="34"/>
       <c r="D273" s="34"/>
@@ -11114,7 +11211,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="34" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B274" s="34"/>
       <c r="D274" s="34"/>
@@ -11129,7 +11226,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="34" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B275" s="34"/>
       <c r="D275" s="34"/>
@@ -11144,7 +11241,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="34" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B276" s="34"/>
       <c r="D276" s="34"/>
@@ -11159,7 +11256,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="34" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B277" s="34"/>
       <c r="D277" s="34"/>
@@ -11174,7 +11271,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="34" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B278" s="34"/>
       <c r="D278" s="34"/>
@@ -11189,7 +11286,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="34" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B279" s="34"/>
       <c r="D279" s="34"/>
@@ -11204,7 +11301,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="34" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B280" s="34"/>
       <c r="D280" s="34"/>
@@ -11219,7 +11316,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="34" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B281" s="34"/>
       <c r="D281" s="34"/>
@@ -11234,7 +11331,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="34" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B282" s="34"/>
       <c r="D282" s="34"/>
@@ -11249,7 +11346,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="34" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B283" s="34"/>
       <c r="D283" s="34"/>
@@ -11264,7 +11361,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="34" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B284" s="34"/>
       <c r="D284" s="34"/>
@@ -11279,7 +11376,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="34" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B285" s="34"/>
       <c r="D285" s="34"/>
@@ -11294,7 +11391,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="34" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B286" s="34"/>
       <c r="D286" s="34"/>
@@ -11309,7 +11406,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="34" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B287" s="34"/>
       <c r="D287" s="34"/>
@@ -11324,7 +11421,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="34" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B288" s="34"/>
       <c r="D288" s="34"/>
@@ -11339,7 +11436,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="34" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B289" s="34"/>
       <c r="D289" s="34"/>
@@ -11353,8 +11450,8 @@
       <c r="L289" s="34"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A290" s="5" t="s">
-        <v>634</v>
+      <c r="A290" s="34" t="s">
+        <v>630</v>
       </c>
       <c r="B290" s="34"/>
       <c r="D290" s="34"/>
@@ -11368,8 +11465,8 @@
       <c r="L290" s="34"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A291" s="5" t="s">
-        <v>635</v>
+      <c r="A291" s="34" t="s">
+        <v>631</v>
       </c>
       <c r="B291" s="34"/>
       <c r="D291" s="34"/>
@@ -11383,8 +11480,8 @@
       <c r="L291" s="34"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A292" s="5" t="s">
-        <v>636</v>
+      <c r="A292" s="34" t="s">
+        <v>632</v>
       </c>
       <c r="B292" s="34"/>
       <c r="D292" s="34"/>
@@ -11398,8 +11495,8 @@
       <c r="L292" s="34"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A293" s="5" t="s">
-        <v>637</v>
+      <c r="A293" s="34" t="s">
+        <v>633</v>
       </c>
       <c r="B293" s="34"/>
       <c r="D293" s="34"/>
@@ -11414,7 +11511,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B294" s="34"/>
       <c r="D294" s="34"/>
@@ -11429,7 +11526,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B295" s="34"/>
       <c r="D295" s="34"/>
@@ -11444,7 +11541,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B296" s="34"/>
       <c r="D296" s="34"/>
@@ -11459,7 +11556,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B297" s="34"/>
       <c r="D297" s="34"/>
@@ -11474,7 +11571,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B298" s="34"/>
       <c r="D298" s="34"/>
@@ -11489,7 +11586,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B299" s="34"/>
       <c r="D299" s="34"/>
@@ -11504,7 +11601,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B300" s="34"/>
       <c r="D300" s="34"/>
@@ -11519,7 +11616,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B301" s="34"/>
       <c r="D301" s="34"/>
@@ -11534,7 +11631,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B302" s="34"/>
       <c r="D302" s="34"/>
@@ -11549,7 +11646,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B303" s="34"/>
       <c r="D303" s="34"/>
@@ -11564,7 +11661,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B304" s="34"/>
       <c r="D304" s="34"/>
@@ -11579,7 +11676,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B305" s="34"/>
       <c r="D305" s="34"/>
@@ -11594,7 +11691,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B306" s="34"/>
       <c r="D306" s="34"/>
@@ -11609,7 +11706,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B307" s="34"/>
       <c r="D307" s="34"/>
@@ -11624,7 +11721,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B308" s="34"/>
       <c r="D308" s="34"/>
@@ -11639,7 +11736,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B309" s="34"/>
       <c r="D309" s="34"/>
@@ -11654,7 +11751,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B310" s="34"/>
       <c r="D310" s="34"/>
@@ -11669,7 +11766,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B311" s="34"/>
       <c r="D311" s="34"/>
@@ -11684,7 +11781,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B312" s="34"/>
       <c r="D312" s="34"/>
@@ -11699,7 +11796,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B313" s="34"/>
       <c r="D313" s="34"/>
@@ -11714,7 +11811,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B314" s="34"/>
       <c r="D314" s="34"/>
@@ -11729,7 +11826,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B315" s="34"/>
       <c r="D315" s="34"/>
@@ -11744,7 +11841,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B316" s="34"/>
       <c r="D316" s="34"/>
@@ -11759,7 +11856,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B317" s="34"/>
       <c r="D317" s="34"/>
@@ -11774,7 +11871,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B318" s="34"/>
       <c r="D318" s="34"/>
@@ -11789,7 +11886,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B319" s="34"/>
       <c r="D319" s="34"/>
@@ -11804,7 +11901,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B320" s="34"/>
       <c r="D320" s="34"/>
@@ -11819,7 +11916,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B321" s="34"/>
       <c r="D321" s="34"/>
@@ -11834,7 +11931,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B322" s="34"/>
       <c r="D322" s="34"/>
@@ -11849,7 +11946,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B323" s="34"/>
       <c r="D323" s="34"/>
@@ -11864,7 +11961,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B324" s="34"/>
       <c r="D324" s="34"/>
@@ -11879,7 +11976,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B325" s="34"/>
       <c r="D325" s="34"/>
@@ -11894,7 +11991,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B326" s="34"/>
       <c r="D326" s="34"/>
@@ -11909,7 +12006,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B327" s="34"/>
       <c r="D327" s="34"/>
@@ -11924,7 +12021,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B328" s="34"/>
       <c r="D328" s="34"/>
@@ -11939,7 +12036,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B329" s="34"/>
       <c r="D329" s="34"/>
@@ -11954,7 +12051,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B330" s="34"/>
       <c r="D330" s="34"/>
@@ -11969,7 +12066,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B331" s="34"/>
       <c r="D331" s="34"/>
@@ -11984,7 +12081,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B332" s="34"/>
       <c r="D332" s="34"/>
@@ -11999,7 +12096,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B333" s="34"/>
       <c r="D333" s="34"/>
@@ -12014,7 +12111,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B334" s="34"/>
       <c r="D334" s="34"/>
@@ -12029,7 +12126,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B335" s="34"/>
       <c r="D335" s="34"/>
@@ -12044,7 +12141,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B336" s="34"/>
       <c r="D336" s="34"/>
@@ -12059,7 +12156,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B337" s="34"/>
       <c r="D337" s="34"/>
@@ -12074,7 +12171,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B338" s="34"/>
       <c r="D338" s="34"/>
@@ -12089,7 +12186,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B339" s="34"/>
       <c r="D339" s="34"/>
@@ -12104,7 +12201,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B340" s="34"/>
       <c r="D340" s="34"/>
@@ -12119,7 +12216,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B341" s="34"/>
       <c r="D341" s="34"/>
@@ -12134,7 +12231,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B342" s="34"/>
       <c r="D342" s="34"/>
@@ -12149,7 +12246,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B343" s="34"/>
       <c r="D343" s="34"/>
@@ -12164,7 +12261,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B344" s="34"/>
       <c r="D344" s="34"/>
@@ -12179,7 +12276,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B345" s="34"/>
       <c r="D345" s="34"/>
@@ -12194,7 +12291,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B346" s="34"/>
       <c r="D346" s="34"/>
@@ -12209,7 +12306,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B347" s="34"/>
       <c r="D347" s="34"/>
@@ -12224,7 +12321,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B348" s="34"/>
       <c r="D348" s="34"/>
@@ -12239,7 +12336,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B349" s="34"/>
       <c r="D349" s="34"/>
@@ -12254,7 +12351,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B350" s="34"/>
       <c r="D350" s="34"/>
@@ -12268,8 +12365,8 @@
       <c r="L350" s="34"/>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A351" s="34" t="s">
-        <v>695</v>
+      <c r="A351" s="5" t="s">
+        <v>691</v>
       </c>
       <c r="B351" s="34"/>
       <c r="D351" s="34"/>
@@ -12283,8 +12380,8 @@
       <c r="L351" s="34"/>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A352" s="34" t="s">
-        <v>696</v>
+      <c r="A352" s="5" t="s">
+        <v>692</v>
       </c>
       <c r="B352" s="34"/>
       <c r="D352" s="34"/>
@@ -12298,8 +12395,8 @@
       <c r="L352" s="34"/>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A353" s="34" t="s">
-        <v>697</v>
+      <c r="A353" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="B353" s="34"/>
       <c r="D353" s="34"/>
@@ -12313,8 +12410,8 @@
       <c r="L353" s="34"/>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A354" s="34" t="s">
-        <v>698</v>
+      <c r="A354" s="5" t="s">
+        <v>694</v>
       </c>
       <c r="B354" s="34"/>
       <c r="D354" s="34"/>
@@ -12329,7 +12426,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="34" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B355" s="34"/>
       <c r="D355" s="34"/>
@@ -12344,7 +12441,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="34" t="s">
-        <v>511</v>
+        <v>696</v>
       </c>
       <c r="B356" s="34"/>
       <c r="D356" s="34"/>
@@ -12359,7 +12456,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="34" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B357" s="34"/>
       <c r="D357" s="34"/>
@@ -12374,7 +12471,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="34" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B358" s="34"/>
       <c r="D358" s="34"/>
@@ -12389,7 +12486,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="34" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B359" s="34"/>
       <c r="D359" s="34"/>
@@ -12404,7 +12501,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="34" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B360" s="34"/>
       <c r="D360" s="34"/>
@@ -12419,7 +12516,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="34" t="s">
-        <v>514</v>
+        <v>700</v>
       </c>
       <c r="B361" s="34"/>
       <c r="D361" s="34"/>
@@ -12434,7 +12531,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="34" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B362" s="34"/>
       <c r="D362" s="34"/>
@@ -12449,7 +12546,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="34" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B363" s="34"/>
       <c r="D363" s="34"/>
@@ -12464,7 +12561,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="34" t="s">
-        <v>705</v>
+        <v>513</v>
       </c>
       <c r="B364" s="34"/>
       <c r="D364" s="34"/>
@@ -12479,7 +12576,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="34" t="s">
-        <v>706</v>
+        <v>514</v>
       </c>
       <c r="B365" s="34"/>
       <c r="D365" s="34"/>
@@ -12494,7 +12591,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="34" t="s">
-        <v>515</v>
+        <v>703</v>
       </c>
       <c r="B366" s="34"/>
       <c r="D366" s="34"/>
@@ -12509,7 +12606,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="34" t="s">
-        <v>516</v>
+        <v>704</v>
       </c>
       <c r="B367" s="34"/>
       <c r="D367" s="34"/>
@@ -12524,7 +12621,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="34" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B368" s="34"/>
       <c r="D368" s="34"/>
@@ -12539,7 +12636,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="34" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B369" s="34"/>
       <c r="D369" s="34"/>
@@ -12554,7 +12651,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="34" t="s">
-        <v>709</v>
+        <v>515</v>
       </c>
       <c r="B370" s="34"/>
       <c r="D370" s="34"/>
@@ -12569,7 +12666,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="34" t="s">
-        <v>710</v>
+        <v>516</v>
       </c>
       <c r="B371" s="34"/>
       <c r="D371" s="34"/>
@@ -12584,7 +12681,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="34" t="s">
-        <v>517</v>
+        <v>707</v>
       </c>
       <c r="B372" s="34"/>
       <c r="D372" s="34"/>
@@ -12599,7 +12696,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="34" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B373" s="34"/>
       <c r="D373" s="34"/>
@@ -12614,7 +12711,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="34" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B374" s="34"/>
       <c r="D374" s="34"/>
@@ -12629,7 +12726,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="34" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B375" s="34"/>
       <c r="D375" s="34"/>
@@ -12644,7 +12741,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="34" t="s">
-        <v>714</v>
+        <v>517</v>
       </c>
       <c r="B376" s="34"/>
       <c r="D376" s="34"/>
@@ -12659,7 +12756,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="34" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B377" s="34"/>
       <c r="D377" s="34"/>
@@ -12674,7 +12771,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="34" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B378" s="34"/>
       <c r="D378" s="34"/>
@@ -12689,7 +12786,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="34" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B379" s="34"/>
       <c r="D379" s="34"/>
@@ -12704,7 +12801,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="34" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B380" s="34"/>
       <c r="D380" s="34"/>
@@ -12719,7 +12816,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="34" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B381" s="34"/>
       <c r="D381" s="34"/>
@@ -12734,7 +12831,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="34" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B382" s="34"/>
       <c r="D382" s="34"/>
@@ -12749,7 +12846,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="34" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B383" s="34"/>
       <c r="D383" s="34"/>
@@ -12764,7 +12861,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="34" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B384" s="34"/>
       <c r="D384" s="34"/>
@@ -12779,7 +12876,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="34" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B385" s="34"/>
       <c r="D385" s="34"/>
@@ -12794,7 +12891,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="34" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B386" s="34"/>
       <c r="D386" s="34"/>
@@ -12809,7 +12906,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="34" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B387" s="34"/>
       <c r="D387" s="34"/>
@@ -12824,7 +12921,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="34" t="s">
-        <v>526</v>
+        <v>722</v>
       </c>
       <c r="B388" s="34"/>
       <c r="D388" s="34"/>
@@ -12839,7 +12936,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="34" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B389" s="34"/>
       <c r="D389" s="34"/>
@@ -12854,7 +12951,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="34" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B390" s="34"/>
       <c r="D390" s="34"/>
@@ -12869,7 +12966,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="34" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B391" s="34"/>
       <c r="D391" s="34"/>
@@ -12884,7 +12981,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="34" t="s">
-        <v>729</v>
+        <v>526</v>
       </c>
       <c r="B392" s="34"/>
       <c r="D392" s="34"/>
@@ -12899,7 +12996,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="34" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B393" s="34"/>
       <c r="D393" s="34"/>
@@ -12914,7 +13011,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="34" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B394" s="34"/>
       <c r="D394" s="34"/>
@@ -12929,7 +13026,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="34" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B395" s="34"/>
       <c r="D395" s="34"/>
@@ -12944,7 +13041,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="34" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B396" s="34"/>
       <c r="D396" s="34"/>
@@ -12959,7 +13056,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="34" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B397" s="34"/>
       <c r="D397" s="34"/>
@@ -12974,7 +13071,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="34" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B398" s="34"/>
       <c r="D398" s="34"/>
@@ -12989,7 +13086,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="34" t="s">
-        <v>527</v>
+        <v>732</v>
       </c>
       <c r="B399" s="34"/>
       <c r="D399" s="34"/>
@@ -13004,7 +13101,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="34" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B400" s="34"/>
       <c r="D400" s="34"/>
@@ -13019,7 +13116,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="34" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B401" s="34"/>
       <c r="D401" s="34"/>
@@ -13034,7 +13131,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="34" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B402" s="34"/>
       <c r="D402" s="34"/>
@@ -13049,7 +13146,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="34" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B403" s="34"/>
       <c r="D403" s="34"/>
@@ -13064,7 +13161,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="34" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B404" s="34"/>
       <c r="D404" s="34"/>
@@ -13079,7 +13176,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="34" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B405" s="34"/>
       <c r="D405" s="34"/>
@@ -13094,7 +13191,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="34" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B406" s="34"/>
       <c r="D406" s="34"/>
@@ -13109,7 +13206,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="34" t="s">
-        <v>742</v>
+        <v>532</v>
       </c>
       <c r="B407" s="34"/>
       <c r="D407" s="34"/>
@@ -13124,7 +13221,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="34" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B408" s="34"/>
       <c r="D408" s="34"/>
@@ -13139,7 +13236,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="34" t="s">
-        <v>533</v>
+        <v>740</v>
       </c>
       <c r="B409" s="34"/>
       <c r="D409" s="34"/>
@@ -13154,7 +13251,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="34" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B410" s="34"/>
       <c r="D410" s="34"/>
@@ -13169,7 +13266,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="34" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B411" s="34"/>
       <c r="D411" s="34"/>
@@ -13184,7 +13281,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="34" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B412" s="34"/>
       <c r="D412" s="34"/>
@@ -13199,7 +13296,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="34" t="s">
-        <v>747</v>
+        <v>533</v>
       </c>
       <c r="B413" s="34"/>
       <c r="D413" s="34"/>
@@ -13214,7 +13311,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="34" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B414" s="34"/>
       <c r="D414" s="34"/>
@@ -13229,7 +13326,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="34" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B415" s="34"/>
       <c r="D415" s="34"/>
@@ -13244,7 +13341,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="34" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B416" s="34"/>
       <c r="D416" s="34"/>
@@ -13259,7 +13356,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="34" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B417" s="34"/>
       <c r="D417" s="34"/>
@@ -13274,7 +13371,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="34" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B418" s="34"/>
       <c r="D418" s="34"/>
@@ -13289,7 +13386,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="34" t="s">
-        <v>536</v>
+        <v>749</v>
       </c>
       <c r="B419" s="34"/>
       <c r="D419" s="34"/>
@@ -13304,7 +13401,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="34" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B420" s="34"/>
       <c r="D420" s="34"/>
@@ -13319,7 +13416,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="34" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B421" s="34"/>
       <c r="D421" s="34"/>
@@ -13334,7 +13431,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="34" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B422" s="34"/>
       <c r="D422" s="34"/>
@@ -13349,7 +13446,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="34" t="s">
-        <v>756</v>
+        <v>536</v>
       </c>
       <c r="B423" s="34"/>
       <c r="D423" s="34"/>
@@ -13364,7 +13461,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="34" t="s">
-        <v>537</v>
+        <v>753</v>
       </c>
       <c r="B424" s="34"/>
       <c r="D424" s="34"/>
@@ -13379,7 +13476,7 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="34" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B425" s="34"/>
       <c r="D425" s="34"/>
@@ -13394,7 +13491,7 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="34" t="s">
-        <v>540</v>
+        <v>755</v>
       </c>
       <c r="B426" s="34"/>
       <c r="D426" s="34"/>
@@ -13409,7 +13506,7 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="34" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B427" s="34"/>
       <c r="D427" s="34"/>
@@ -13424,7 +13521,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="34" t="s">
-        <v>759</v>
+        <v>537</v>
       </c>
       <c r="B428" s="34"/>
       <c r="D428" s="34"/>
@@ -13439,7 +13536,7 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="34" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B429" s="34"/>
       <c r="D429" s="34"/>
@@ -13454,7 +13551,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="34" t="s">
-        <v>761</v>
+        <v>540</v>
       </c>
       <c r="B430" s="34"/>
       <c r="D430" s="34"/>
@@ -13469,7 +13566,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="34" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B431" s="34"/>
       <c r="D431" s="34"/>
@@ -13484,7 +13581,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="34" t="s">
-        <v>541</v>
+        <v>759</v>
       </c>
       <c r="B432" s="34"/>
       <c r="D432" s="34"/>
@@ -13499,7 +13596,7 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="34" t="s">
-        <v>542</v>
+        <v>760</v>
       </c>
       <c r="B433" s="34"/>
       <c r="D433" s="34"/>
@@ -13514,7 +13611,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="34" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B434" s="34"/>
       <c r="D434" s="34"/>
@@ -13529,7 +13626,7 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="34" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B435" s="34"/>
       <c r="D435" s="34"/>
@@ -13544,7 +13641,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="34" t="s">
-        <v>765</v>
+        <v>541</v>
       </c>
       <c r="B436" s="34"/>
       <c r="D436" s="34"/>
@@ -13559,7 +13656,7 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="34" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B437" s="34"/>
       <c r="D437" s="34"/>
@@ -13574,7 +13671,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="34" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B438" s="34"/>
       <c r="D438" s="34"/>
@@ -13589,7 +13686,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="34" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B439" s="34"/>
       <c r="D439" s="34"/>
@@ -13604,7 +13701,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="34" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B440" s="34"/>
       <c r="D440" s="34"/>
@@ -13619,7 +13716,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="34" t="s">
-        <v>769</v>
+        <v>544</v>
       </c>
       <c r="B441" s="34"/>
       <c r="D441" s="34"/>
@@ -13634,7 +13731,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="34" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B442" s="34"/>
       <c r="D442" s="34"/>
@@ -13649,7 +13746,7 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="34" t="s">
-        <v>545</v>
+        <v>767</v>
       </c>
       <c r="B443" s="34"/>
       <c r="D443" s="34"/>
@@ -13664,7 +13761,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="34" t="s">
-        <v>546</v>
+        <v>768</v>
       </c>
       <c r="B444" s="34"/>
       <c r="D444" s="34"/>
@@ -13679,7 +13776,7 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="34" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B445" s="34"/>
       <c r="D445" s="34"/>
@@ -13694,7 +13791,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="34" t="s">
-        <v>547</v>
+        <v>770</v>
       </c>
       <c r="B446" s="34"/>
       <c r="D446" s="34"/>
@@ -13709,7 +13806,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="34" t="s">
-        <v>772</v>
+        <v>545</v>
       </c>
       <c r="B447" s="34"/>
       <c r="D447" s="34"/>
@@ -13724,7 +13821,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="34" t="s">
-        <v>773</v>
+        <v>546</v>
       </c>
       <c r="B448" s="34"/>
       <c r="D448" s="34"/>
@@ -13739,7 +13836,7 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="34" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B449" s="34"/>
       <c r="D449" s="34"/>
@@ -13754,7 +13851,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="34" t="s">
-        <v>775</v>
+        <v>547</v>
       </c>
       <c r="B450" s="34"/>
       <c r="D450" s="34"/>
@@ -13769,7 +13866,7 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="34" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B451" s="34"/>
       <c r="D451" s="34"/>
@@ -13784,7 +13881,7 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="34" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B452" s="34"/>
       <c r="D452" s="34"/>
@@ -13799,7 +13896,7 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="34" t="s">
-        <v>553</v>
+        <v>774</v>
       </c>
       <c r="B453" s="34"/>
       <c r="D453" s="34"/>
@@ -13814,7 +13911,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="34" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B454" s="34"/>
       <c r="D454" s="34"/>
@@ -13829,7 +13926,7 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="34" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B455" s="34"/>
       <c r="D455" s="34"/>
@@ -13844,7 +13941,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="34" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B456" s="34"/>
       <c r="D456" s="34"/>
@@ -13859,7 +13956,7 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="34" t="s">
-        <v>781</v>
+        <v>553</v>
       </c>
       <c r="B457" s="34"/>
       <c r="D457" s="34"/>
@@ -13874,7 +13971,7 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="34" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B458" s="34"/>
       <c r="D458" s="34"/>
@@ -13889,7 +13986,7 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="34" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B459" s="34"/>
       <c r="D459" s="34"/>
@@ -13904,7 +14001,7 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="34" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B460" s="34"/>
       <c r="D460" s="34"/>
@@ -13919,7 +14016,7 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="34" t="s">
-        <v>556</v>
+        <v>781</v>
       </c>
       <c r="B461" s="34"/>
       <c r="D461" s="34"/>
@@ -13934,7 +14031,7 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="34" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B462" s="34"/>
       <c r="D462" s="34"/>
@@ -13949,7 +14046,7 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="34" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B463" s="34"/>
       <c r="D463" s="34"/>
@@ -13964,7 +14061,7 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="34" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B464" s="34"/>
       <c r="D464" s="34"/>
@@ -13979,7 +14076,7 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="34" t="s">
-        <v>788</v>
+        <v>556</v>
       </c>
       <c r="B465" s="34"/>
       <c r="D465" s="34"/>
@@ -13994,7 +14091,7 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="34" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B466" s="34"/>
       <c r="D466" s="34"/>
@@ -14009,7 +14106,7 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="34" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B467" s="34"/>
       <c r="D467" s="34"/>
@@ -14024,7 +14121,7 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="34" t="s">
-        <v>558</v>
+        <v>787</v>
       </c>
       <c r="B468" s="34"/>
       <c r="D468" s="34"/>
@@ -14039,7 +14136,7 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="34" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B469" s="34"/>
       <c r="D469" s="34"/>
@@ -14054,7 +14151,7 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="34" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B470" s="34"/>
       <c r="D470" s="34"/>
@@ -14069,7 +14166,7 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="34" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B471" s="34"/>
       <c r="D471" s="34"/>
@@ -14084,7 +14181,7 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="34" t="s">
-        <v>794</v>
+        <v>558</v>
       </c>
       <c r="B472" s="34"/>
       <c r="D472" s="34"/>
@@ -14099,7 +14196,7 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="34" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B473" s="34"/>
       <c r="D473" s="34"/>
@@ -14114,7 +14211,7 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="34" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B474" s="34"/>
       <c r="D474" s="34"/>
@@ -14129,7 +14226,7 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="34" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B475" s="34"/>
       <c r="D475" s="34"/>
@@ -14144,7 +14241,7 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="34" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B476" s="34"/>
       <c r="D476" s="34"/>
@@ -14159,7 +14256,7 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="34" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B477" s="34"/>
       <c r="D477" s="34"/>
@@ -14174,7 +14271,7 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="34" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B478" s="34"/>
       <c r="D478" s="34"/>
@@ -14189,7 +14286,7 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="34" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B479" s="34"/>
       <c r="D479" s="34"/>
@@ -14204,7 +14301,7 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="34" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B480" s="34"/>
       <c r="D480" s="34"/>
@@ -14219,7 +14316,7 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="34" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B481" s="34"/>
       <c r="D481" s="34"/>
@@ -14234,7 +14331,7 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="34" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B482" s="34"/>
       <c r="D482" s="34"/>
@@ -14249,7 +14346,7 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="34" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B483" s="34"/>
       <c r="D483" s="34"/>
@@ -14264,7 +14361,7 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="34" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B484" s="34"/>
       <c r="D484" s="34"/>
@@ -14279,7 +14376,7 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="34" t="s">
-        <v>563</v>
+        <v>803</v>
       </c>
       <c r="B485" s="34"/>
       <c r="D485" s="34"/>
@@ -14294,7 +14391,7 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="34" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B486" s="34"/>
       <c r="D486" s="34"/>
@@ -14309,7 +14406,7 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="34" t="s">
-        <v>564</v>
+        <v>805</v>
       </c>
       <c r="B487" s="34"/>
       <c r="D487" s="34"/>
@@ -14324,7 +14421,7 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="34" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B488" s="34"/>
       <c r="D488" s="34"/>
@@ -14339,7 +14436,7 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="34" t="s">
-        <v>809</v>
+        <v>563</v>
       </c>
       <c r="B489" s="34"/>
       <c r="D489" s="34"/>
@@ -14354,7 +14451,7 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="34" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B490" s="34"/>
       <c r="D490" s="34"/>
@@ -14369,7 +14466,7 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="34" t="s">
-        <v>811</v>
+        <v>564</v>
       </c>
       <c r="B491" s="34"/>
       <c r="D491" s="34"/>
@@ -14384,7 +14481,7 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="34" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B492" s="34"/>
       <c r="D492" s="34"/>
@@ -14399,7 +14496,7 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="34" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B493" s="34"/>
       <c r="D493" s="34"/>
@@ -14414,7 +14511,7 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="34" t="s">
-        <v>567</v>
+        <v>810</v>
       </c>
       <c r="B494" s="34"/>
       <c r="D494" s="34"/>
@@ -14429,7 +14526,7 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="34" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B495" s="34"/>
       <c r="D495" s="34"/>
@@ -14444,7 +14541,7 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="34" t="s">
-        <v>568</v>
+        <v>812</v>
       </c>
       <c r="B496" s="34"/>
       <c r="D496" s="34"/>
@@ -14459,7 +14556,7 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="34" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B497" s="34"/>
       <c r="D497" s="34"/>
@@ -14474,7 +14571,7 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="34" t="s">
-        <v>816</v>
+        <v>567</v>
       </c>
       <c r="B498" s="34"/>
       <c r="D498" s="34"/>
@@ -14488,8 +14585,8 @@
       <c r="L498" s="34"/>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A499" s="40" t="b">
-        <v>0</v>
+      <c r="A499" s="34" t="s">
+        <v>814</v>
       </c>
       <c r="B499" s="34"/>
       <c r="D499" s="34"/>
@@ -14504,7 +14601,7 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="34" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B500" s="34"/>
       <c r="D500" s="34"/>
@@ -14519,7 +14616,7 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="34" t="s">
-        <v>574</v>
+        <v>815</v>
       </c>
       <c r="B501" s="34"/>
       <c r="D501" s="34"/>
@@ -14534,7 +14631,7 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B502" s="34"/>
       <c r="D502" s="34"/>
@@ -14548,8 +14645,8 @@
       <c r="L502" s="34"/>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A503" s="34" t="s">
-        <v>818</v>
+      <c r="A503" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="B503" s="34"/>
       <c r="D503" s="34"/>
@@ -14564,7 +14661,7 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="34" t="s">
-        <v>819</v>
+        <v>573</v>
       </c>
       <c r="B504" s="34"/>
       <c r="D504" s="34"/>
@@ -14579,7 +14676,7 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="34" t="s">
-        <v>820</v>
+        <v>574</v>
       </c>
       <c r="B505" s="34"/>
       <c r="D505" s="34"/>
@@ -14594,7 +14691,7 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="34" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B506" s="34"/>
       <c r="D506" s="34"/>
@@ -14609,7 +14706,7 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="34" t="s">
-        <v>576</v>
+        <v>818</v>
       </c>
       <c r="B507" s="34"/>
       <c r="D507" s="34"/>
@@ -14624,7 +14721,7 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="34" t="s">
-        <v>577</v>
+        <v>819</v>
       </c>
       <c r="B508" s="34"/>
       <c r="D508" s="34"/>
@@ -14639,7 +14736,7 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="34" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B509" s="34"/>
       <c r="D509" s="34"/>
@@ -14654,7 +14751,7 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="34" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B510" s="34"/>
       <c r="D510" s="34"/>
@@ -14669,7 +14766,7 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="34" t="s">
-        <v>824</v>
+        <v>576</v>
       </c>
       <c r="B511" s="34"/>
       <c r="D511" s="34"/>
@@ -14684,7 +14781,7 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="34" t="s">
-        <v>825</v>
+        <v>577</v>
       </c>
       <c r="B512" s="34"/>
       <c r="D512" s="34"/>
@@ -14699,7 +14796,7 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="34" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B513" s="34"/>
       <c r="D513" s="34"/>
@@ -14714,7 +14811,7 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="34" t="s">
-        <v>580</v>
+        <v>823</v>
       </c>
       <c r="B514" s="34"/>
       <c r="D514" s="34"/>
@@ -14729,7 +14826,7 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="34" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B515" s="34"/>
       <c r="D515" s="34"/>
@@ -14744,7 +14841,7 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="34" t="s">
-        <v>581</v>
+        <v>825</v>
       </c>
       <c r="B516" s="34"/>
       <c r="D516" s="34"/>
@@ -14759,7 +14856,7 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="34" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B517" s="34"/>
       <c r="D517" s="34"/>
@@ -14774,7 +14871,7 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="34" t="s">
-        <v>829</v>
+        <v>580</v>
       </c>
       <c r="B518" s="34"/>
       <c r="D518" s="34"/>
@@ -14789,7 +14886,7 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="34" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B519" s="34"/>
       <c r="D519" s="34"/>
@@ -14804,7 +14901,7 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="34" t="s">
-        <v>831</v>
+        <v>581</v>
       </c>
       <c r="B520" s="34"/>
       <c r="D520" s="34"/>
@@ -14819,7 +14916,7 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="34" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B521" s="34"/>
       <c r="D521" s="34"/>
@@ -14834,7 +14931,7 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="34" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B522" s="34"/>
       <c r="D522" s="34"/>
@@ -14849,7 +14946,7 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="34" t="s">
-        <v>583</v>
+        <v>830</v>
       </c>
       <c r="B523" s="34"/>
       <c r="D523" s="34"/>
@@ -14864,7 +14961,7 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="34" t="s">
-        <v>584</v>
+        <v>831</v>
       </c>
       <c r="B524" s="34"/>
       <c r="D524" s="34"/>
@@ -14879,7 +14976,7 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="34" t="s">
-        <v>585</v>
+        <v>832</v>
       </c>
       <c r="B525" s="34"/>
       <c r="D525" s="34"/>
@@ -14894,7 +14991,7 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="34" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B526" s="34"/>
       <c r="D526" s="34"/>
@@ -14909,7 +15006,7 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="34" t="s">
-        <v>835</v>
+        <v>583</v>
       </c>
       <c r="B527" s="34"/>
       <c r="D527" s="34"/>
@@ -14924,7 +15021,7 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="34" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B528" s="34"/>
       <c r="D528" s="34"/>
@@ -14939,7 +15036,7 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="34" t="s">
-        <v>836</v>
+        <v>585</v>
       </c>
       <c r="B529" s="34"/>
       <c r="D529" s="34"/>
@@ -14954,7 +15051,7 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="34" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B530" s="34"/>
       <c r="D530" s="34"/>
@@ -14969,7 +15066,7 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="34" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B531" s="34"/>
       <c r="D531" s="34"/>
@@ -14984,7 +15081,7 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="34" t="s">
-        <v>839</v>
+        <v>586</v>
       </c>
       <c r="B532" s="34"/>
       <c r="D532" s="34"/>
@@ -14999,7 +15096,7 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="34" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B533" s="34"/>
       <c r="D533" s="34"/>
@@ -15014,7 +15111,7 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="34" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B534" s="34"/>
       <c r="D534" s="34"/>
@@ -15029,7 +15126,7 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="34" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B535" s="34"/>
       <c r="D535" s="34"/>
@@ -15044,7 +15141,7 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="34" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B536" s="34"/>
       <c r="D536" s="34"/>
@@ -15059,7 +15156,7 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="34" t="s">
-        <v>592</v>
+        <v>840</v>
       </c>
       <c r="B537" s="34"/>
       <c r="D537" s="34"/>
@@ -15074,7 +15171,7 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="34" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B538" s="34"/>
       <c r="D538" s="34"/>
@@ -15089,7 +15186,7 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="34" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B539" s="34"/>
       <c r="D539" s="34"/>
@@ -15104,7 +15201,7 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="34" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B540" s="34"/>
       <c r="D540" s="34"/>
@@ -15119,7 +15216,7 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="34" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B541" s="34"/>
       <c r="D541" s="34"/>
@@ -15134,7 +15231,7 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="34" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B542" s="34"/>
       <c r="D542" s="34"/>
@@ -15149,7 +15246,7 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="34" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B543" s="34"/>
       <c r="D543" s="34"/>
@@ -15164,7 +15261,7 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="34" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B544" s="34"/>
       <c r="D544" s="34"/>
@@ -15179,7 +15276,7 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="34" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B545" s="34"/>
       <c r="D545" s="34"/>
@@ -15194,7 +15291,7 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="34" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B546" s="34"/>
       <c r="D546" s="34"/>
@@ -15209,7 +15306,7 @@
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="34" t="s">
-        <v>597</v>
+        <v>848</v>
       </c>
       <c r="B547" s="34"/>
       <c r="D547" s="34"/>
@@ -15224,7 +15321,7 @@
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="34" t="s">
-        <v>598</v>
+        <v>849</v>
       </c>
       <c r="B548" s="34"/>
       <c r="D548" s="34"/>
@@ -15239,7 +15336,7 @@
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="34" t="s">
-        <v>851</v>
+        <v>596</v>
       </c>
       <c r="B549" s="34"/>
       <c r="D549" s="34"/>
@@ -15254,7 +15351,7 @@
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="34" t="s">
-        <v>599</v>
+        <v>850</v>
       </c>
       <c r="B550" s="34"/>
       <c r="D550" s="34"/>
@@ -15269,7 +15366,7 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="34" t="s">
-        <v>852</v>
+        <v>597</v>
       </c>
       <c r="B551" s="34"/>
       <c r="D551" s="34"/>
@@ -15284,7 +15381,7 @@
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="34" t="s">
-        <v>853</v>
+        <v>598</v>
       </c>
       <c r="B552" s="34"/>
       <c r="D552" s="34"/>
@@ -15299,7 +15396,7 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="34" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B553" s="34"/>
       <c r="D553" s="34"/>
@@ -15314,7 +15411,7 @@
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="34" t="s">
-        <v>855</v>
+        <v>599</v>
       </c>
       <c r="B554" s="34"/>
       <c r="D554" s="34"/>
@@ -15329,7 +15426,7 @@
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="34" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B555" s="34"/>
       <c r="D555" s="34"/>
@@ -15344,7 +15441,7 @@
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="34" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B556" s="34"/>
       <c r="D556" s="34"/>
@@ -15359,7 +15456,7 @@
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="34" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B557" s="34"/>
       <c r="D557" s="34"/>
@@ -15374,7 +15471,7 @@
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="34" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B558" s="34"/>
       <c r="D558" s="34"/>
@@ -15389,7 +15486,7 @@
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="34" t="s">
-        <v>602</v>
+        <v>856</v>
       </c>
       <c r="B559" s="34"/>
       <c r="D559" s="34"/>
@@ -15404,7 +15501,7 @@
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="34" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B560" s="34"/>
       <c r="D560" s="34"/>
@@ -15419,7 +15516,7 @@
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="34" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B561" s="34"/>
       <c r="D561" s="34"/>
@@ -15434,7 +15531,7 @@
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="34" t="s">
-        <v>603</v>
+        <v>859</v>
       </c>
       <c r="B562" s="34"/>
       <c r="D562" s="34"/>
@@ -15449,7 +15546,7 @@
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" s="34" t="s">
-        <v>862</v>
+        <v>602</v>
       </c>
       <c r="B563" s="34"/>
       <c r="D563" s="34"/>
@@ -15464,7 +15561,7 @@
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="34" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B564" s="34"/>
       <c r="D564" s="34"/>
@@ -15479,7 +15576,7 @@
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="34" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B565" s="34"/>
       <c r="D565" s="34"/>
@@ -15494,7 +15591,7 @@
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="34" t="s">
-        <v>865</v>
+        <v>603</v>
       </c>
       <c r="B566" s="34"/>
       <c r="D566" s="34"/>
@@ -15509,7 +15606,7 @@
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="34" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B567" s="34"/>
       <c r="D567" s="34"/>
@@ -15524,7 +15621,7 @@
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="34" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B568" s="34"/>
       <c r="D568" s="34"/>
@@ -15539,7 +15636,7 @@
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="34" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B569" s="34"/>
       <c r="D569" s="34"/>
@@ -15554,7 +15651,7 @@
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="34" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B570" s="34"/>
       <c r="D570" s="34"/>
@@ -15569,7 +15666,7 @@
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="34" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B571" s="34"/>
       <c r="D571" s="34"/>
@@ -15584,7 +15681,7 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="34" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B572" s="34"/>
       <c r="D572" s="34"/>
@@ -15599,7 +15696,7 @@
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="34" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B573" s="34"/>
       <c r="D573" s="34"/>
@@ -15614,7 +15711,7 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="34" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B574" s="34"/>
       <c r="D574" s="34"/>
@@ -15629,7 +15726,7 @@
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="34" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B575" s="34"/>
       <c r="D575" s="34"/>
@@ -15644,7 +15741,7 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="34" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B576" s="34"/>
       <c r="D576" s="34"/>
@@ -15659,7 +15756,7 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="34" t="s">
-        <v>606</v>
+        <v>872</v>
       </c>
       <c r="B577" s="34"/>
       <c r="D577" s="34"/>
@@ -15674,7 +15771,7 @@
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="34" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B578" s="34"/>
       <c r="D578" s="34"/>
@@ -15689,7 +15786,7 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="34" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B579" s="34"/>
       <c r="D579" s="34"/>
@@ -15704,7 +15801,7 @@
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="34" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B580" s="34"/>
       <c r="D580" s="34"/>
@@ -15719,7 +15816,7 @@
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="34" t="s">
-        <v>879</v>
+        <v>606</v>
       </c>
       <c r="B581" s="34"/>
       <c r="D581" s="34"/>
@@ -15734,7 +15831,7 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="34" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B582" s="34"/>
       <c r="D582" s="34"/>
@@ -15749,7 +15846,7 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="34" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B583" s="34"/>
       <c r="D583" s="34"/>
@@ -15764,7 +15861,7 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="34" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B584" s="34"/>
       <c r="D584" s="34"/>
@@ -15779,7 +15876,7 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="34" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B585" s="34"/>
       <c r="D585" s="34"/>
@@ -15794,7 +15891,7 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="34" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B586" s="34"/>
       <c r="D586" s="34"/>
@@ -15809,7 +15906,7 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="34" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B587" s="34"/>
       <c r="D587" s="34"/>
@@ -15824,7 +15921,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="34" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B588" s="34"/>
       <c r="D588" s="34"/>
@@ -15839,7 +15936,7 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="34" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B589" s="34"/>
       <c r="D589" s="34"/>
@@ -15854,7 +15951,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="34" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B590" s="34"/>
       <c r="D590" s="34"/>
@@ -15869,7 +15966,7 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="34" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B591" s="34"/>
       <c r="D591" s="34"/>
@@ -15884,7 +15981,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="34" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B592" s="34"/>
       <c r="D592" s="34"/>
@@ -15899,7 +15996,7 @@
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="34" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B593" s="34"/>
       <c r="D593" s="34"/>
@@ -15914,7 +16011,7 @@
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="34" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B594" s="34"/>
       <c r="D594" s="34"/>
@@ -15929,7 +16026,7 @@
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="34" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B595" s="34"/>
       <c r="D595" s="34"/>
@@ -15944,7 +16041,7 @@
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="34" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B596" s="34"/>
       <c r="D596" s="34"/>
@@ -15959,7 +16056,7 @@
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="34" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B597" s="34"/>
       <c r="D597" s="34"/>
@@ -15974,7 +16071,7 @@
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="34" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B598" s="34"/>
       <c r="D598" s="34"/>
@@ -15989,7 +16086,7 @@
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="34" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B599" s="34"/>
       <c r="D599" s="34"/>
@@ -16004,7 +16101,7 @@
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="34" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B600" s="34"/>
       <c r="D600" s="34"/>
@@ -16019,7 +16116,7 @@
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="34" t="s">
-        <v>610</v>
+        <v>895</v>
       </c>
       <c r="B601" s="34"/>
       <c r="D601" s="34"/>
@@ -16034,7 +16131,7 @@
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="34" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B602" s="34"/>
       <c r="D602" s="34"/>
@@ -16049,7 +16146,7 @@
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="34" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B603" s="34"/>
       <c r="D603" s="34"/>
@@ -16064,7 +16161,7 @@
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="34" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B604" s="34"/>
       <c r="D604" s="34"/>
@@ -16079,7 +16176,7 @@
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B605" s="34"/>
       <c r="D605" s="34"/>
@@ -16094,7 +16191,7 @@
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="34" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B606" s="34"/>
       <c r="D606" s="34"/>
@@ -16109,7 +16206,7 @@
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="34" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B607" s="34"/>
       <c r="D607" s="34"/>
@@ -16124,7 +16221,7 @@
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="34" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B608" s="34"/>
       <c r="D608" s="34"/>
@@ -16139,7 +16236,7 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="34" t="s">
-        <v>905</v>
+        <v>611</v>
       </c>
       <c r="B609" s="34"/>
       <c r="D609" s="34"/>
@@ -16154,7 +16251,7 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="34" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B610" s="34"/>
       <c r="D610" s="34"/>
@@ -16169,7 +16266,7 @@
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="34" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B611" s="34"/>
       <c r="D611" s="34"/>
@@ -16184,7 +16281,7 @@
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="34" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B612" s="34"/>
       <c r="D612" s="34"/>
@@ -16199,7 +16296,7 @@
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="34" t="s">
-        <v>616</v>
+        <v>905</v>
       </c>
       <c r="B613" s="34"/>
       <c r="D613" s="34"/>
@@ -16214,7 +16311,7 @@
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="34" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B614" s="34"/>
       <c r="D614" s="34"/>
@@ -16229,7 +16326,7 @@
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" s="34" t="s">
-        <v>617</v>
+        <v>907</v>
       </c>
       <c r="B615" s="34"/>
       <c r="D615" s="34"/>
@@ -16244,7 +16341,7 @@
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" s="34" t="s">
-        <v>623</v>
+        <v>908</v>
       </c>
       <c r="B616" s="34"/>
       <c r="D616" s="34"/>
@@ -16259,7 +16356,7 @@
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="34" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B617" s="34"/>
       <c r="D617" s="34"/>
@@ -16274,7 +16371,7 @@
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="34" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B618" s="34"/>
       <c r="D618" s="34"/>
@@ -16289,7 +16386,7 @@
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="34" t="s">
-        <v>911</v>
+        <v>617</v>
       </c>
       <c r="B619" s="34"/>
       <c r="D619" s="34"/>
@@ -16304,7 +16401,7 @@
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="34" t="s">
-        <v>912</v>
+        <v>623</v>
       </c>
       <c r="B620" s="34"/>
       <c r="D620" s="34"/>
@@ -16319,7 +16416,7 @@
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B621" s="34"/>
       <c r="D621" s="34"/>
@@ -16334,7 +16431,7 @@
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="34" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B622" s="34"/>
       <c r="D622" s="34"/>
@@ -16349,7 +16446,7 @@
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="34" t="s">
-        <v>626</v>
+        <v>911</v>
       </c>
       <c r="B623" s="34"/>
       <c r="D623" s="34"/>
@@ -16364,7 +16461,7 @@
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="34" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B624" s="34"/>
       <c r="D624" s="34"/>
@@ -16379,7 +16476,7 @@
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" s="34" t="s">
-        <v>915</v>
+        <v>625</v>
       </c>
       <c r="B625" s="34"/>
       <c r="D625" s="34"/>
@@ -16394,7 +16491,7 @@
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" s="34" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B626" s="34"/>
       <c r="D626" s="34"/>
@@ -16409,7 +16506,7 @@
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="34" t="s">
-        <v>917</v>
+        <v>626</v>
       </c>
       <c r="B627" s="34"/>
       <c r="D627" s="34"/>
@@ -16424,7 +16521,7 @@
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" s="34" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B628" s="34"/>
       <c r="D628" s="34"/>
@@ -16439,7 +16536,7 @@
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" s="34" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B629" s="34"/>
       <c r="D629" s="34"/>
@@ -16454,7 +16551,7 @@
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" s="34" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B630" s="34"/>
       <c r="D630" s="34"/>
@@ -16469,7 +16566,7 @@
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" s="34" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B631" s="34"/>
       <c r="D631" s="34"/>
@@ -16484,7 +16581,7 @@
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B632" s="34"/>
       <c r="D632" s="34"/>
@@ -16499,7 +16596,7 @@
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="34" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B633" s="34"/>
       <c r="D633" s="34"/>
@@ -16514,7 +16611,7 @@
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="34" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B634" s="34"/>
       <c r="D634" s="34"/>
@@ -16529,7 +16626,7 @@
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" s="34" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B635" s="34"/>
       <c r="D635" s="34"/>
@@ -16544,7 +16641,7 @@
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" s="34" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B636" s="34"/>
       <c r="D636" s="34"/>
@@ -16559,7 +16656,7 @@
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" s="34" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B637" s="34"/>
       <c r="D637" s="34"/>
@@ -16574,7 +16671,7 @@
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" s="34" t="s">
-        <v>627</v>
+        <v>924</v>
       </c>
       <c r="B638" s="34"/>
       <c r="D638" s="34"/>
@@ -16589,7 +16686,7 @@
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" s="34" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B639" s="34"/>
       <c r="D639" s="34"/>
@@ -16604,7 +16701,7 @@
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" s="34" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B640" s="34"/>
       <c r="D640" s="34"/>
@@ -16619,7 +16716,7 @@
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641" s="34" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B641" s="34"/>
       <c r="D641" s="34"/>
@@ -16634,7 +16731,7 @@
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642" s="34" t="s">
-        <v>931</v>
+        <v>627</v>
       </c>
       <c r="B642" s="34"/>
       <c r="D642" s="34"/>
@@ -16649,7 +16746,7 @@
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643" s="34" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B643" s="34"/>
       <c r="D643" s="34"/>
@@ -16664,7 +16761,7 @@
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644" s="34" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B644" s="34"/>
       <c r="D644" s="34"/>
@@ -16679,7 +16776,7 @@
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645" s="34" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B645" s="34"/>
       <c r="D645" s="34"/>
@@ -16694,7 +16791,7 @@
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646" s="34" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B646" s="34"/>
       <c r="D646" s="34"/>
@@ -16709,7 +16806,7 @@
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647" s="34" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B647" s="34"/>
       <c r="D647" s="34"/>
@@ -16724,7 +16821,7 @@
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" s="34" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B648" s="34"/>
       <c r="D648" s="34"/>
@@ -16739,7 +16836,7 @@
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" s="34" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B649" s="34"/>
       <c r="D649" s="34"/>
@@ -16754,7 +16851,7 @@
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650" s="34" t="s">
-        <v>631</v>
+        <v>935</v>
       </c>
       <c r="B650" s="34"/>
       <c r="D650" s="34"/>
@@ -16769,7 +16866,7 @@
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" s="34" t="s">
-        <v>635</v>
+        <v>936</v>
       </c>
       <c r="B651" s="34"/>
       <c r="D651" s="34"/>
@@ -16784,7 +16881,7 @@
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652" s="34" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B652" s="34"/>
       <c r="D652" s="34"/>
@@ -16799,7 +16896,7 @@
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653" s="34" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B653" s="34"/>
       <c r="D653" s="34"/>
@@ -16814,7 +16911,7 @@
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654" s="34" t="s">
-        <v>941</v>
+        <v>631</v>
       </c>
       <c r="B654" s="34"/>
       <c r="D654" s="34"/>
@@ -16829,7 +16926,7 @@
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" s="34" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B655" s="34"/>
       <c r="D655" s="34"/>
@@ -16844,7 +16941,7 @@
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" s="34" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B656" s="34"/>
       <c r="D656" s="34"/>
@@ -16859,7 +16956,7 @@
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" s="34" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B657" s="34"/>
       <c r="D657" s="34"/>
@@ -16874,7 +16971,7 @@
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" s="34" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B658" s="34"/>
       <c r="D658" s="34"/>
@@ -16889,7 +16986,7 @@
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659" s="34" t="s">
-        <v>945</v>
+        <v>640</v>
       </c>
       <c r="B659" s="34"/>
       <c r="D659" s="34"/>
@@ -16904,7 +17001,7 @@
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660" s="34" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B660" s="34"/>
       <c r="D660" s="34"/>
@@ -16919,7 +17016,7 @@
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" s="34" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B661" s="34"/>
       <c r="D661" s="34"/>
@@ -16934,7 +17031,7 @@
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" s="34" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B662" s="34"/>
       <c r="D662" s="34"/>
@@ -16949,7 +17046,7 @@
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" s="34" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B663" s="34"/>
       <c r="D663" s="34"/>
@@ -16964,7 +17061,7 @@
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" s="34" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B664" s="34"/>
       <c r="D664" s="34"/>
@@ -16979,7 +17076,7 @@
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" s="34" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B665" s="34"/>
       <c r="D665" s="34"/>
@@ -16994,7 +17091,7 @@
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666" s="34" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B666" s="34"/>
       <c r="D666" s="34"/>
@@ -17009,7 +17106,7 @@
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667" s="34" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B667" s="34"/>
       <c r="D667" s="34"/>
@@ -17024,7 +17121,7 @@
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668" s="34" t="s">
-        <v>642</v>
+        <v>950</v>
       </c>
       <c r="B668" s="34"/>
       <c r="D668" s="34"/>
@@ -17039,7 +17136,7 @@
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" s="34" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B669" s="34"/>
       <c r="D669" s="34"/>
@@ -17054,7 +17151,7 @@
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670" s="34" t="s">
-        <v>644</v>
+        <v>952</v>
       </c>
       <c r="B670" s="34"/>
       <c r="D670" s="34"/>
@@ -17069,7 +17166,7 @@
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" s="34" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B671" s="34"/>
       <c r="D671" s="34"/>
@@ -17084,7 +17181,7 @@
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" s="34" t="s">
-        <v>956</v>
+        <v>642</v>
       </c>
       <c r="B672" s="34"/>
       <c r="D672" s="34"/>
@@ -17099,7 +17196,7 @@
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673" s="34" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B673" s="34"/>
       <c r="D673" s="34"/>
@@ -17114,7 +17211,7 @@
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674" s="34" t="s">
-        <v>958</v>
+        <v>644</v>
       </c>
       <c r="B674" s="34"/>
       <c r="D674" s="34"/>
@@ -17129,7 +17226,7 @@
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" s="34" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B675" s="34"/>
       <c r="D675" s="34"/>
@@ -17144,7 +17241,7 @@
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" s="34" t="s">
-        <v>647</v>
+        <v>956</v>
       </c>
       <c r="B676" s="34"/>
       <c r="D676" s="34"/>
@@ -17159,7 +17256,7 @@
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677" s="34" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B677" s="34"/>
       <c r="D677" s="34"/>
@@ -17174,7 +17271,7 @@
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A678" s="34" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B678" s="34"/>
       <c r="D678" s="34"/>
@@ -17189,7 +17286,7 @@
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679" s="34" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B679" s="34"/>
       <c r="D679" s="34"/>
@@ -17204,7 +17301,7 @@
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" s="34" t="s">
-        <v>963</v>
+        <v>647</v>
       </c>
       <c r="B680" s="34"/>
       <c r="D680" s="34"/>
@@ -17219,7 +17316,7 @@
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681" s="34" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B681" s="34"/>
       <c r="D681" s="34"/>
@@ -17234,7 +17331,7 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" s="34" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B682" s="34"/>
       <c r="D682" s="34"/>
@@ -17249,7 +17346,7 @@
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683" s="34" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B683" s="34"/>
       <c r="D683" s="34"/>
@@ -17264,7 +17361,7 @@
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" s="34" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B684" s="34"/>
       <c r="D684" s="34"/>
@@ -17279,7 +17376,7 @@
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" s="34" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B685" s="34"/>
       <c r="D685" s="34"/>
@@ -17294,7 +17391,7 @@
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686" s="34" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B686" s="34"/>
       <c r="D686" s="34"/>
@@ -17309,7 +17406,7 @@
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687" s="34" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B687" s="34"/>
       <c r="D687" s="34"/>
@@ -17324,7 +17421,7 @@
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688" s="34" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B688" s="34"/>
       <c r="D688" s="34"/>
@@ -17339,7 +17436,7 @@
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689" s="34" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B689" s="34"/>
       <c r="D689" s="34"/>
@@ -17354,7 +17451,7 @@
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690" s="34" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B690" s="34"/>
       <c r="D690" s="34"/>
@@ -17369,7 +17466,7 @@
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691" s="34" t="s">
-        <v>655</v>
+        <v>970</v>
       </c>
       <c r="B691" s="34"/>
       <c r="D691" s="34"/>
@@ -17384,7 +17481,7 @@
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692" s="34" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B692" s="34"/>
       <c r="D692" s="34"/>
@@ -17399,7 +17496,7 @@
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693" s="34" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B693" s="34"/>
       <c r="D693" s="34"/>
@@ -17414,7 +17511,7 @@
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A694" s="34" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B694" s="34"/>
       <c r="D694" s="34"/>
@@ -17429,7 +17526,7 @@
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695" s="34" t="s">
-        <v>977</v>
+        <v>655</v>
       </c>
       <c r="B695" s="34"/>
       <c r="D695" s="34"/>
@@ -17444,7 +17541,7 @@
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696" s="34" t="s">
-        <v>659</v>
+        <v>974</v>
       </c>
       <c r="B696" s="34"/>
       <c r="D696" s="34"/>
@@ -17459,7 +17556,7 @@
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697" s="34" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B697" s="34"/>
       <c r="D697" s="34"/>
@@ -17474,7 +17571,7 @@
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698" s="34" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B698" s="34"/>
       <c r="D698" s="34"/>
@@ -17489,7 +17586,7 @@
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699" s="34" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B699" s="34"/>
       <c r="D699" s="34"/>
@@ -17504,7 +17601,7 @@
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A700" s="34" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B700" s="34"/>
       <c r="D700" s="34"/>
@@ -17519,7 +17616,7 @@
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A701" s="34" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B701" s="34"/>
       <c r="D701" s="34"/>
@@ -17534,7 +17631,7 @@
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702" s="34" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B702" s="34"/>
       <c r="D702" s="34"/>
@@ -17549,7 +17646,7 @@
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703" s="34" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B703" s="34"/>
       <c r="D703" s="34"/>
@@ -17564,7 +17661,7 @@
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A704" s="34" t="s">
-        <v>984</v>
+        <v>663</v>
       </c>
       <c r="B704" s="34"/>
       <c r="D704" s="34"/>
@@ -17579,7 +17676,7 @@
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="34" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B705" s="34"/>
       <c r="D705" s="34"/>
@@ -17594,7 +17691,7 @@
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" s="34" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B706" s="34"/>
       <c r="D706" s="34"/>
@@ -17609,7 +17706,7 @@
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" s="34" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B707" s="34"/>
       <c r="D707" s="34"/>
@@ -17624,7 +17721,7 @@
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" s="34" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B708" s="34"/>
       <c r="D708" s="34"/>
@@ -17639,7 +17736,7 @@
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" s="34" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B709" s="34"/>
       <c r="D709" s="34"/>
@@ -17654,7 +17751,7 @@
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" s="34" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B710" s="34"/>
       <c r="D710" s="34"/>
@@ -17669,7 +17766,7 @@
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" s="34" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B711" s="34"/>
       <c r="D711" s="34"/>
@@ -17684,7 +17781,7 @@
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" s="34" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B712" s="34"/>
       <c r="D712" s="34"/>
@@ -17699,7 +17796,7 @@
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" s="34" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B713" s="34"/>
       <c r="D713" s="34"/>
@@ -17714,7 +17811,7 @@
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" s="34" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B714" s="34"/>
       <c r="D714" s="34"/>
@@ -17729,7 +17826,7 @@
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715" s="34" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B715" s="34"/>
       <c r="D715" s="34"/>
@@ -17744,7 +17841,7 @@
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" s="34" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B716" s="34"/>
       <c r="D716" s="34"/>
@@ -17759,7 +17856,7 @@
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" s="34" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B717" s="34"/>
       <c r="D717" s="34"/>
@@ -17774,7 +17871,7 @@
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" s="34" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B718" s="34"/>
       <c r="D718" s="34"/>
@@ -17789,7 +17886,7 @@
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" s="34" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B719" s="34"/>
       <c r="D719" s="34"/>
@@ -17804,7 +17901,7 @@
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" s="34" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B720" s="34"/>
       <c r="D720" s="34"/>
@@ -17819,7 +17916,7 @@
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721" s="34" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B721" s="34"/>
       <c r="D721" s="34"/>
@@ -17834,7 +17931,7 @@
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722" s="34" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B722" s="34"/>
       <c r="D722" s="34"/>
@@ -17849,7 +17946,7 @@
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723" s="34" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B723" s="34"/>
       <c r="D723" s="34"/>
@@ -17864,7 +17961,7 @@
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A724" s="34" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B724" s="34"/>
       <c r="D724" s="34"/>
@@ -17879,7 +17976,7 @@
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725" s="34" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B725" s="34"/>
       <c r="D725" s="34"/>
@@ -17894,7 +17991,7 @@
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726" s="34" t="s">
-        <v>665</v>
+        <v>1002</v>
       </c>
       <c r="B726" s="34"/>
       <c r="D726" s="34"/>
@@ -17909,7 +18006,7 @@
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727" s="34" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B727" s="34"/>
       <c r="D727" s="34"/>
@@ -17924,7 +18021,7 @@
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728" s="34" t="s">
-        <v>666</v>
+        <v>1004</v>
       </c>
       <c r="B728" s="34"/>
       <c r="D728" s="34"/>
@@ -17939,7 +18036,7 @@
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A729" s="34" t="s">
-        <v>667</v>
+        <v>1005</v>
       </c>
       <c r="B729" s="34"/>
       <c r="D729" s="34"/>
@@ -17954,7 +18051,7 @@
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730" s="34" t="s">
-        <v>1007</v>
+        <v>665</v>
       </c>
       <c r="B730" s="34"/>
       <c r="D730" s="34"/>
@@ -17969,7 +18066,7 @@
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731" s="34" t="s">
-        <v>669</v>
+        <v>1006</v>
       </c>
       <c r="B731" s="34"/>
       <c r="D731" s="34"/>
@@ -17984,7 +18081,7 @@
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732" s="34" t="s">
-        <v>1008</v>
+        <v>666</v>
       </c>
       <c r="B732" s="34"/>
       <c r="D732" s="34"/>
@@ -17999,7 +18096,7 @@
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733" s="34" t="s">
-        <v>1009</v>
+        <v>667</v>
       </c>
       <c r="B733" s="34"/>
       <c r="D733" s="34"/>
@@ -18014,7 +18111,7 @@
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734" s="34" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B734" s="34"/>
       <c r="D734" s="34"/>
@@ -18029,7 +18126,7 @@
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B735" s="34"/>
       <c r="D735" s="34"/>
@@ -18044,7 +18141,7 @@
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A736" s="34" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B736" s="34"/>
       <c r="D736" s="34"/>
@@ -18059,7 +18156,7 @@
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A737" s="34" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B737" s="34"/>
       <c r="D737" s="34"/>
@@ -18074,7 +18171,7 @@
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A738" s="34" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B738" s="34"/>
       <c r="D738" s="34"/>
@@ -18089,7 +18186,7 @@
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A739" s="34" t="s">
-        <v>1014</v>
+        <v>670</v>
       </c>
       <c r="B739" s="34"/>
       <c r="D739" s="34"/>
@@ -18104,7 +18201,7 @@
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A740" s="34" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B740" s="34"/>
       <c r="D740" s="34"/>
@@ -18119,7 +18216,7 @@
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A741" s="34" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B741" s="34"/>
       <c r="D741" s="34"/>
@@ -18134,7 +18231,7 @@
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A742" s="34" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B742" s="34"/>
       <c r="D742" s="34"/>
@@ -18149,7 +18246,7 @@
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A743" s="34" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B743" s="34"/>
       <c r="D743" s="34"/>
@@ -18164,7 +18261,7 @@
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A744" s="34" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B744" s="34"/>
       <c r="D744" s="34"/>
@@ -18179,7 +18276,7 @@
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A745" s="34" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B745" s="34"/>
       <c r="D745" s="34"/>
@@ -18194,7 +18291,7 @@
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A746" s="34" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B746" s="34"/>
       <c r="D746" s="34"/>
@@ -18209,7 +18306,7 @@
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A747" s="34" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B747" s="34"/>
       <c r="D747" s="34"/>
@@ -18224,7 +18321,7 @@
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A748" s="34" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B748" s="34"/>
       <c r="D748" s="34"/>
@@ -18239,7 +18336,7 @@
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A749" s="34" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B749" s="34"/>
       <c r="D749" s="34"/>
@@ -18254,7 +18351,7 @@
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A750" s="34" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B750" s="34"/>
       <c r="D750" s="34"/>
@@ -18268,8 +18365,8 @@
       <c r="L750" s="34"/>
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A751" s="34" t="b">
-        <v>1</v>
+      <c r="A751" s="34" t="s">
+        <v>1022</v>
       </c>
       <c r="B751" s="34"/>
       <c r="D751" s="34"/>
@@ -18284,7 +18381,7 @@
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A752" s="34" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B752" s="34"/>
       <c r="D752" s="34"/>
@@ -18299,7 +18396,7 @@
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A753" s="34" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B753" s="34"/>
       <c r="D753" s="34"/>
@@ -18314,7 +18411,7 @@
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A754" s="34" t="s">
-        <v>678</v>
+        <v>1025</v>
       </c>
       <c r="B754" s="34"/>
       <c r="D754" s="34"/>
@@ -18328,8 +18425,8 @@
       <c r="L754" s="34"/>
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A755" s="34" t="s">
-        <v>679</v>
+      <c r="A755" s="34" t="b">
+        <v>1</v>
       </c>
       <c r="B755" s="34"/>
       <c r="D755" s="34"/>
@@ -18344,7 +18441,7 @@
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A756" s="34" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B756" s="34"/>
       <c r="D756" s="34"/>
@@ -18359,7 +18456,7 @@
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A757" s="34" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B757" s="34"/>
       <c r="D757" s="34"/>
@@ -18374,7 +18471,7 @@
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A758" s="34" t="s">
-        <v>1030</v>
+        <v>678</v>
       </c>
       <c r="B758" s="34"/>
       <c r="D758" s="34"/>
@@ -18389,7 +18486,7 @@
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A759" s="34" t="s">
-        <v>1031</v>
+        <v>679</v>
       </c>
       <c r="B759" s="34"/>
       <c r="D759" s="34"/>
@@ -18404,7 +18501,7 @@
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A760" s="34" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B760" s="34"/>
       <c r="D760" s="34"/>
@@ -18419,7 +18516,7 @@
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A761" s="34" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B761" s="34"/>
       <c r="D761" s="34"/>
@@ -18434,7 +18531,7 @@
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A762" s="34" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B762" s="34"/>
       <c r="D762" s="34"/>
@@ -18449,7 +18546,7 @@
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A763" s="34" t="s">
-        <v>684</v>
+        <v>1031</v>
       </c>
       <c r="B763" s="34"/>
       <c r="D763" s="34"/>
@@ -18464,7 +18561,7 @@
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A764" s="34" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B764" s="34"/>
       <c r="D764" s="34"/>
@@ -18479,7 +18576,7 @@
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A765" s="34" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B765" s="34"/>
       <c r="D765" s="34"/>
@@ -18494,7 +18591,7 @@
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A766" s="34" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B766" s="34"/>
       <c r="D766" s="34"/>
@@ -18509,7 +18606,7 @@
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A767" s="34" t="s">
-        <v>1038</v>
+        <v>684</v>
       </c>
       <c r="B767" s="34"/>
       <c r="D767" s="34"/>
@@ -18524,7 +18621,7 @@
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A768" s="34" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B768" s="34"/>
       <c r="D768" s="34"/>
@@ -18539,7 +18636,7 @@
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A769" s="34" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B769" s="34"/>
       <c r="D769" s="34"/>
@@ -18554,7 +18651,7 @@
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A770" s="34" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B770" s="34"/>
       <c r="D770" s="34"/>
@@ -18569,7 +18666,7 @@
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A771" s="34" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B771" s="34"/>
       <c r="D771" s="34"/>
@@ -18584,7 +18681,7 @@
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A772" s="34" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B772" s="34"/>
       <c r="D772" s="34"/>
@@ -18599,7 +18696,7 @@
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A773" s="34" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B773" s="34"/>
       <c r="D773" s="34"/>
@@ -18614,7 +18711,7 @@
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A774" s="34" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B774" s="34"/>
       <c r="D774" s="34"/>
@@ -18629,7 +18726,7 @@
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A775" s="34" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B775" s="34"/>
       <c r="D775" s="34"/>
@@ -18644,7 +18741,7 @@
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A776" s="34" t="s">
-        <v>689</v>
+        <v>1043</v>
       </c>
       <c r="B776" s="34"/>
       <c r="D776" s="34"/>
@@ -18659,7 +18756,7 @@
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A777" s="34" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B777" s="34"/>
       <c r="D777" s="34"/>
@@ -18674,7 +18771,7 @@
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A778" s="34" t="s">
-        <v>690</v>
+        <v>1045</v>
       </c>
       <c r="B778" s="34"/>
       <c r="D778" s="34"/>
@@ -18689,7 +18786,7 @@
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A779" s="34" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B779" s="34"/>
       <c r="D779" s="34"/>
@@ -18704,7 +18801,7 @@
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A780" s="34" t="s">
-        <v>1049</v>
+        <v>689</v>
       </c>
       <c r="B780" s="34"/>
       <c r="D780" s="34"/>
@@ -18719,7 +18816,7 @@
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A781" s="34" t="s">
-        <v>692</v>
+        <v>1047</v>
       </c>
       <c r="B781" s="34"/>
       <c r="D781" s="34"/>
@@ -18734,7 +18831,7 @@
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A782" s="34" t="s">
-        <v>1050</v>
+        <v>690</v>
       </c>
       <c r="B782" s="34"/>
       <c r="D782" s="34"/>
@@ -18749,7 +18846,7 @@
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A783" s="34" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B783" s="34"/>
       <c r="D783" s="34"/>
@@ -18764,7 +18861,7 @@
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A784" s="34" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B784" s="34"/>
       <c r="D784" s="34"/>
@@ -18779,7 +18876,7 @@
     </row>
     <row r="785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A785" s="34" t="s">
-        <v>1053</v>
+        <v>692</v>
       </c>
       <c r="B785" s="34"/>
       <c r="D785" s="34"/>
@@ -18794,7 +18891,7 @@
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A786" s="34" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B786" s="34"/>
       <c r="D786" s="34"/>
@@ -18809,7 +18906,7 @@
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A787" s="34" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B787" s="34"/>
       <c r="D787" s="34"/>
@@ -18824,7 +18921,7 @@
     </row>
     <row r="788" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A788" s="34" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B788" s="34"/>
       <c r="D788" s="34"/>
@@ -18839,7 +18936,7 @@
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A789" s="34" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B789" s="34"/>
       <c r="D789" s="34"/>
@@ -18854,7 +18951,7 @@
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790" s="34" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B790" s="34"/>
       <c r="D790" s="34"/>
@@ -18869,7 +18966,7 @@
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791" s="34" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B791" s="34"/>
       <c r="D791" s="34"/>
@@ -18884,7 +18981,7 @@
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A792" s="34" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B792" s="34"/>
       <c r="D792" s="34"/>
@@ -18899,7 +18996,7 @@
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793" s="34" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B793" s="34"/>
       <c r="D793" s="34"/>
@@ -18914,7 +19011,7 @@
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A794" s="34" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B794" s="34"/>
       <c r="D794" s="34"/>
@@ -18929,7 +19026,7 @@
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795" s="34" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B795" s="34"/>
       <c r="D795" s="34"/>
@@ -18942,18 +19039,78 @@
       <c r="K795" s="34"/>
       <c r="L795" s="34"/>
     </row>
+    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A796" s="34" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B796" s="34"/>
+      <c r="D796" s="34"/>
+      <c r="E796" s="34"/>
+      <c r="F796" s="34"/>
+      <c r="G796" s="34"/>
+      <c r="H796" s="34"/>
+      <c r="I796" s="34"/>
+      <c r="J796" s="34"/>
+      <c r="K796" s="34"/>
+      <c r="L796" s="34"/>
+    </row>
+    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A797" s="34" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B797" s="34"/>
+      <c r="D797" s="34"/>
+      <c r="E797" s="34"/>
+      <c r="F797" s="34"/>
+      <c r="G797" s="34"/>
+      <c r="H797" s="34"/>
+      <c r="I797" s="34"/>
+      <c r="J797" s="34"/>
+      <c r="K797" s="34"/>
+      <c r="L797" s="34"/>
+    </row>
+    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A798" s="34" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B798" s="34"/>
+      <c r="D798" s="34"/>
+      <c r="E798" s="34"/>
+      <c r="F798" s="34"/>
+      <c r="G798" s="34"/>
+      <c r="H798" s="34"/>
+      <c r="I798" s="34"/>
+      <c r="J798" s="34"/>
+      <c r="K798" s="34"/>
+      <c r="L798" s="34"/>
+    </row>
+    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A799" s="34" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B799" s="34"/>
+      <c r="D799" s="34"/>
+      <c r="E799" s="34"/>
+      <c r="F799" s="34"/>
+      <c r="G799" s="34"/>
+      <c r="H799" s="34"/>
+      <c r="I799" s="34"/>
+      <c r="J799" s="34"/>
+      <c r="K799" s="34"/>
+      <c r="L799" s="34"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A83">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A79:A86">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A75:A83">
-      <formula1>LEN(A75)=LEN(SUBSTITUTE(A75," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A78:A86">
+      <formula1>LEN(A78)=LEN(SUBSTITUTE(A78," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B75 B77:B86"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B78 B80:B89"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Community/Forage_Fish_Beach_Survey.xlsx
+++ b/Community/Forage_Fish_Beach_Survey.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1068">
   <si>
     <t>type</t>
   </si>
@@ -3220,18 +3220,6 @@
   </si>
   <si>
     <t>Applies to integer and decimal fields. Displays a custom calculator widget.</t>
-  </si>
-  <si>
-    <t>compact</t>
-  </si>
-  <si>
-    <t>Applies to groups and repeats. The question group will start off collapsed, instead of expanded.</t>
-  </si>
-  <si>
-    <t>minimal compact</t>
-  </si>
-  <si>
-    <t>Applies to repeats. Applie sboth horizontal and compact appearance types simultaneously.</t>
   </si>
   <si>
     <t>esriFieldTypeGUID</t>
@@ -3549,63 +3537,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet3" xfId="9"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3666,14 +3598,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3757,18 +3681,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:X236"/>
   <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="13"/>
-    <tableColumn id="4" name="hint" dataDxfId="12"/>
+    <tableColumn id="3" name="label" dataDxfId="6"/>
+    <tableColumn id="4" name="hint" dataDxfId="5"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="11"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="4"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
-    <tableColumn id="8" name="appearance" dataDxfId="10"/>
+    <tableColumn id="8" name="appearance" dataDxfId="3"/>
     <tableColumn id="9" name="default"/>
     <tableColumn id="11" name="readonly"/>
     <tableColumn id="10" name="relevant"/>
@@ -4099,7 +4023,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4141,7 +4065,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4164,8 +4088,8 @@
   <dimension ref="A1:AF236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.453125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5809,7 +5733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B233">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C1048576"/>
@@ -5863,13 +5787,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$129:$A$134</xm:f>
+            <xm:f>types!$A$127:$A$132</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$50</xm:f>
+            <xm:f>types!$A$35:$A$48</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -5885,7 +5809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6783,7 +6707,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L799"/>
+  <dimension ref="A1:L797"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7593,12 +7517,8 @@
       <c r="L48" s="34"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>1067</v>
-      </c>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
@@ -7609,13 +7529,11 @@
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>1069</v>
-      </c>
+    <row r="50" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="34"/>
       <c r="D50" s="34"/>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
@@ -7627,8 +7545,12 @@
       <c r="L50" s="34"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
+      <c r="A51" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>111</v>
+      </c>
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
@@ -7639,11 +7561,13 @@
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
     </row>
-    <row r="52" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="34"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>110</v>
+      </c>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
@@ -7654,13 +7578,10 @@
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>111</v>
-      </c>
+    <row r="53" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
@@ -7671,12 +7592,12 @@
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
-        <v>109</v>
+    <row r="54" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
@@ -7688,10 +7609,11 @@
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
     </row>
-    <row r="55" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="5"/>
+      <c r="B55" s="34" t="s">
+        <v>235</v>
+      </c>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
       <c r="F55" s="34"/>
@@ -7703,12 +7625,8 @@
       <c r="L55" s="34"/>
     </row>
     <row r="56" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>234</v>
-      </c>
+      <c r="A56" s="14"/>
+      <c r="B56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
       <c r="F56" s="34"/>
@@ -7719,24 +7637,33 @@
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
+    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
@@ -7747,32 +7674,35 @@
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
     </row>
-    <row r="59" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>57</v>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
@@ -7786,13 +7716,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
@@ -7806,13 +7736,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
@@ -7826,13 +7756,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="D63" s="34"/>
       <c r="E63" s="34"/>
@@ -7846,13 +7776,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
@@ -7866,13 +7796,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
@@ -7886,13 +7816,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
@@ -7906,13 +7836,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
@@ -7926,13 +7856,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
@@ -7946,13 +7876,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D69" s="34"/>
       <c r="E69" s="34"/>
@@ -7964,15 +7894,15 @@
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D70" s="34"/>
       <c r="E70" s="34"/>
@@ -7986,13 +7916,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
@@ -8004,15 +7934,15 @@
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
     </row>
-    <row r="72" spans="1:12" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D72" s="34"/>
       <c r="E72" s="34"/>
@@ -8025,15 +7955,9 @@
       <c r="L72" s="34"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
@@ -8044,30 +7968,30 @@
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="32"/>
+    <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="30"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+    </row>
+    <row r="75" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="21"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
@@ -8078,30 +8002,30 @@
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
     </row>
-    <row r="76" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-    </row>
-    <row r="77" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="21"/>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
@@ -8114,10 +8038,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
@@ -8131,10 +8055,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
@@ -8148,10 +8072,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D80" s="34"/>
       <c r="E80" s="34"/>
@@ -8165,10 +8089,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
@@ -8182,10 +8106,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D82" s="34"/>
       <c r="E82" s="34"/>
@@ -8199,10 +8123,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D83" s="34"/>
       <c r="E83" s="34"/>
@@ -8216,10 +8140,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
@@ -8231,12 +8155,12 @@
       <c r="K84" s="34"/>
       <c r="L84" s="34"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>199</v>
+    <row r="85" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D85" s="34"/>
       <c r="E85" s="34"/>
@@ -8248,12 +8172,12 @@
       <c r="K85" s="34"/>
       <c r="L85" s="34"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>201</v>
+    <row r="86" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D86" s="34"/>
       <c r="E86" s="34"/>
@@ -8267,10 +8191,10 @@
     </row>
     <row r="87" spans="1:12" ht="14" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>208</v>
+        <v>457</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
       <c r="D87" s="34"/>
       <c r="E87" s="34"/>
@@ -8282,13 +8206,9 @@
       <c r="K87" s="34"/>
       <c r="L87" s="34"/>
     </row>
-    <row r="88" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>207</v>
-      </c>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
       <c r="D88" s="34"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
@@ -8299,13 +8219,11 @@
       <c r="K88" s="34"/>
       <c r="L88" s="34"/>
     </row>
-    <row r="89" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>458</v>
-      </c>
+    <row r="89" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34"/>
       <c r="F89" s="34"/>
@@ -8316,9 +8234,13 @@
       <c r="K89" s="34"/>
       <c r="L89" s="34"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
+    <row r="90" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
       <c r="F90" s="34"/>
@@ -8329,11 +8251,13 @@
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
     </row>
-    <row r="91" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B91" s="34"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>122</v>
+      </c>
       <c r="D91" s="34"/>
       <c r="E91" s="34"/>
       <c r="F91" s="34"/>
@@ -8344,12 +8268,12 @@
       <c r="K91" s="34"/>
       <c r="L91" s="34"/>
     </row>
-    <row r="92" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>120</v>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="D92" s="34"/>
       <c r="E92" s="34"/>
@@ -8361,12 +8285,12 @@
       <c r="K92" s="34"/>
       <c r="L92" s="34"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D93" s="34"/>
       <c r="E93" s="34"/>
@@ -8380,10 +8304,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D94" s="34"/>
       <c r="E94" s="34"/>
@@ -8395,12 +8319,12 @@
       <c r="K94" s="34"/>
       <c r="L94" s="34"/>
     </row>
-    <row r="95" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D95" s="34"/>
       <c r="E95" s="34"/>
@@ -8414,10 +8338,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D96" s="34"/>
       <c r="E96" s="34"/>
@@ -8431,10 +8355,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D97" s="34"/>
       <c r="E97" s="34"/>
@@ -8448,10 +8372,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D98" s="34"/>
       <c r="E98" s="34"/>
@@ -8465,10 +8389,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D99" s="34"/>
       <c r="E99" s="34"/>
@@ -8482,10 +8406,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D100" s="34"/>
       <c r="E100" s="34"/>
@@ -8499,10 +8423,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D101" s="34"/>
       <c r="E101" s="34"/>
@@ -8516,10 +8440,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D102" s="34"/>
       <c r="E102" s="34"/>
@@ -8533,10 +8457,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D103" s="34"/>
       <c r="E103" s="34"/>
@@ -8550,10 +8474,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D104" s="34"/>
       <c r="E104" s="34"/>
@@ -8567,10 +8491,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D105" s="34"/>
       <c r="E105" s="34"/>
@@ -8584,10 +8508,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D106" s="34"/>
       <c r="E106" s="34"/>
@@ -8601,10 +8525,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D107" s="34"/>
       <c r="E107" s="34"/>
@@ -8618,10 +8542,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D108" s="34"/>
       <c r="E108" s="34"/>
@@ -8635,10 +8559,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D109" s="34"/>
       <c r="E109" s="34"/>
@@ -8652,10 +8576,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D110" s="34"/>
       <c r="E110" s="34"/>
@@ -8669,10 +8593,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D111" s="34"/>
       <c r="E111" s="34"/>
@@ -8686,10 +8610,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D112" s="34"/>
       <c r="E112" s="34"/>
@@ -8703,10 +8627,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D113" s="34"/>
       <c r="E113" s="34"/>
@@ -8720,10 +8644,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D114" s="34"/>
       <c r="E114" s="34"/>
@@ -8737,10 +8661,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D115" s="34"/>
       <c r="E115" s="34"/>
@@ -8754,10 +8678,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D116" s="34"/>
       <c r="E116" s="34"/>
@@ -8771,10 +8695,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D117" s="34"/>
       <c r="E117" s="34"/>
@@ -8788,10 +8712,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D118" s="34"/>
       <c r="E118" s="34"/>
@@ -8805,10 +8729,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D119" s="34"/>
       <c r="E119" s="34"/>
@@ -8820,12 +8744,12 @@
       <c r="K119" s="34"/>
       <c r="L119" s="34"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D120" s="34"/>
       <c r="E120" s="34"/>
@@ -8839,10 +8763,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D121" s="34"/>
       <c r="E121" s="34"/>
@@ -8854,12 +8778,12 @@
       <c r="K121" s="34"/>
       <c r="L121" s="34"/>
     </row>
-    <row r="122" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="34"/>
@@ -8873,10 +8797,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D123" s="34"/>
       <c r="E123" s="34"/>
@@ -8890,10 +8814,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="34"/>
@@ -8906,12 +8830,8 @@
       <c r="L124" s="34"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>183</v>
-      </c>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
       <c r="D125" s="34"/>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
@@ -8922,13 +8842,11 @@
       <c r="K125" s="34"/>
       <c r="L125" s="34"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>185</v>
-      </c>
+    <row r="126" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" s="34"/>
       <c r="D126" s="34"/>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
@@ -8940,8 +8858,12 @@
       <c r="L126" s="34"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="34"/>
-      <c r="B127" s="34"/>
+      <c r="A127" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>221</v>
+      </c>
       <c r="D127" s="34"/>
       <c r="E127" s="34"/>
       <c r="F127" s="34"/>
@@ -8952,11 +8874,13 @@
       <c r="K127" s="34"/>
       <c r="L127" s="34"/>
     </row>
-    <row r="128" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" s="34"/>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>225</v>
+      </c>
       <c r="D128" s="34"/>
       <c r="E128" s="34"/>
       <c r="F128" s="34"/>
@@ -8969,10 +8893,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D129" s="34"/>
       <c r="E129" s="34"/>
@@ -8986,10 +8910,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D130" s="34"/>
       <c r="E130" s="34"/>
@@ -9003,10 +8927,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>226</v>
+        <v>460</v>
       </c>
       <c r="D131" s="34"/>
       <c r="E131" s="34"/>
@@ -9020,10 +8944,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B132" s="34" t="s">
-        <v>227</v>
+        <v>1066</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>1067</v>
       </c>
       <c r="D132" s="34"/>
       <c r="E132" s="34"/>
@@ -9036,12 +8960,8 @@
       <c r="L132" s="34"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>460</v>
-      </c>
+      <c r="A133" s="34"/>
+      <c r="B133" s="34"/>
       <c r="D133" s="34"/>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
@@ -9052,13 +8972,11 @@
       <c r="K133" s="34"/>
       <c r="L133" s="34"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="30" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>1071</v>
-      </c>
+    <row r="134" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B134" s="34"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
@@ -9069,9 +8987,14 @@
       <c r="K134" s="34"/>
       <c r="L134" s="34"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="34"/>
-      <c r="B135" s="34"/>
+    <row r="135" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A135" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="C135" s="38"/>
       <c r="D135" s="34"/>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
@@ -9082,11 +9005,14 @@
       <c r="K135" s="34"/>
       <c r="L135" s="34"/>
     </row>
-    <row r="136" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="B136" s="34"/>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="C136" s="30"/>
       <c r="D136" s="34"/>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
@@ -9097,14 +9023,14 @@
       <c r="K136" s="34"/>
       <c r="L136" s="34"/>
     </row>
-    <row r="137" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="C137" s="38"/>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="C137" s="30"/>
       <c r="D137" s="34"/>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
@@ -9117,10 +9043,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C138" s="30"/>
       <c r="D138" s="34"/>
@@ -9135,10 +9061,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C139" s="30"/>
       <c r="D139" s="34"/>
@@ -9153,10 +9079,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C140" s="30"/>
       <c r="D140" s="34"/>
@@ -9171,10 +9097,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C141" s="30"/>
       <c r="D141" s="34"/>
@@ -9189,10 +9115,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C142" s="30"/>
       <c r="D142" s="34"/>
@@ -9207,10 +9133,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C143" s="30"/>
       <c r="D143" s="34"/>
@@ -9225,10 +9151,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C144" s="30"/>
       <c r="D144" s="34"/>
@@ -9243,10 +9169,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C145" s="30"/>
       <c r="D145" s="34"/>
@@ -9261,10 +9187,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C146" s="30"/>
       <c r="D146" s="34"/>
@@ -9279,10 +9205,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C147" s="30"/>
       <c r="D147" s="34"/>
@@ -9297,10 +9223,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C148" s="30"/>
       <c r="D148" s="34"/>
@@ -9315,10 +9241,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C149" s="30"/>
       <c r="D149" s="34"/>
@@ -9333,10 +9259,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C150" s="30"/>
       <c r="D150" s="34"/>
@@ -9351,10 +9277,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C151" s="30"/>
       <c r="D151" s="34"/>
@@ -9369,10 +9295,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C152" s="30"/>
       <c r="D152" s="34"/>
@@ -9387,10 +9313,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C153" s="30"/>
       <c r="D153" s="34"/>
@@ -9404,13 +9330,8 @@
       <c r="L153" s="34"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="B154" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="C154" s="30"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="34"/>
       <c r="D154" s="34"/>
       <c r="E154" s="34"/>
       <c r="F154" s="34"/>
@@ -9421,14 +9342,13 @@
       <c r="K154" s="34"/>
       <c r="L154" s="34"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="B155" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="C155" s="30"/>
+    <row r="155" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>500</v>
+      </c>
       <c r="D155" s="34"/>
       <c r="E155" s="34"/>
       <c r="F155" s="34"/>
@@ -9440,7 +9360,9 @@
       <c r="L155" s="34"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
+      <c r="A156" s="39" t="s">
+        <v>501</v>
+      </c>
       <c r="B156" s="34"/>
       <c r="D156" s="34"/>
       <c r="E156" s="34"/>
@@ -9452,13 +9374,11 @@
       <c r="K156" s="34"/>
       <c r="L156" s="34"/>
     </row>
-    <row r="157" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B157" s="34" t="s">
-        <v>500</v>
-      </c>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="B157" s="34"/>
       <c r="D157" s="34"/>
       <c r="E157" s="34"/>
       <c r="F157" s="34"/>
@@ -9471,7 +9391,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="39" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B158" s="34"/>
       <c r="D158" s="34"/>
@@ -9486,7 +9406,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="39" t="s">
-        <v>502</v>
+        <v>64</v>
       </c>
       <c r="B159" s="34"/>
       <c r="D159" s="34"/>
@@ -9501,7 +9421,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B160" s="34"/>
       <c r="D160" s="34"/>
@@ -9516,7 +9436,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="39" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B161" s="34"/>
       <c r="D161" s="34"/>
@@ -9531,7 +9451,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
-        <v>504</v>
+        <v>125</v>
       </c>
       <c r="B162" s="34"/>
       <c r="D162" s="34"/>
@@ -9546,7 +9466,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="39" t="s">
-        <v>123</v>
+        <v>505</v>
       </c>
       <c r="B163" s="34"/>
       <c r="D163" s="34"/>
@@ -9561,7 +9481,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="39" t="s">
-        <v>125</v>
+        <v>506</v>
       </c>
       <c r="B164" s="34"/>
       <c r="D164" s="34"/>
@@ -9575,9 +9495,7 @@
       <c r="L164" s="34"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="39" t="s">
-        <v>505</v>
-      </c>
+      <c r="A165" s="34"/>
       <c r="B165" s="34"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34"/>
@@ -9589,11 +9507,13 @@
       <c r="K165" s="34"/>
       <c r="L165" s="34"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="39" t="s">
-        <v>506</v>
-      </c>
-      <c r="B166" s="34"/>
+    <row r="166" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B166" s="34" t="s">
+        <v>508</v>
+      </c>
       <c r="D166" s="34"/>
       <c r="E166" s="34"/>
       <c r="F166" s="34"/>
@@ -9605,7 +9525,9 @@
       <c r="L166" s="34"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
+      <c r="A167" s="30" t="s">
+        <v>509</v>
+      </c>
       <c r="B167" s="34"/>
       <c r="D167" s="34"/>
       <c r="E167" s="34"/>
@@ -9617,13 +9539,11 @@
       <c r="K167" s="34"/>
       <c r="L167" s="34"/>
     </row>
-    <row r="168" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A168" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="B168" s="34" t="s">
-        <v>508</v>
-      </c>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="B168" s="34"/>
       <c r="D168" s="34"/>
       <c r="E168" s="34"/>
       <c r="F168" s="34"/>
@@ -9635,8 +9555,8 @@
       <c r="L168" s="34"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="30" t="s">
-        <v>509</v>
+      <c r="A169" s="34" t="s">
+        <v>511</v>
       </c>
       <c r="B169" s="34"/>
       <c r="D169" s="34"/>
@@ -9651,7 +9571,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B170" s="34"/>
       <c r="D170" s="34"/>
@@ -9666,7 +9586,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B171" s="34"/>
       <c r="D171" s="34"/>
@@ -9681,7 +9601,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B172" s="34"/>
       <c r="D172" s="34"/>
@@ -9696,7 +9616,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B173" s="34"/>
       <c r="D173" s="34"/>
@@ -9711,7 +9631,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="34" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B174" s="34"/>
       <c r="D174" s="34"/>
@@ -9726,7 +9646,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="34" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B175" s="34"/>
       <c r="D175" s="34"/>
@@ -9741,7 +9661,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="34" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B176" s="34"/>
       <c r="D176" s="34"/>
@@ -9756,7 +9676,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="34" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B177" s="34"/>
       <c r="D177" s="34"/>
@@ -9771,7 +9691,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="34" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B178" s="34"/>
       <c r="D178" s="34"/>
@@ -9786,7 +9706,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B179" s="34"/>
       <c r="D179" s="34"/>
@@ -9801,7 +9721,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B180" s="34"/>
       <c r="D180" s="34"/>
@@ -9816,7 +9736,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B181" s="34"/>
       <c r="D181" s="34"/>
@@ -9831,7 +9751,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="34" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B182" s="34"/>
       <c r="D182" s="34"/>
@@ -9846,7 +9766,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="34" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B183" s="34"/>
       <c r="D183" s="34"/>
@@ -9861,7 +9781,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="34" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B184" s="34"/>
       <c r="D184" s="34"/>
@@ -9876,7 +9796,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="34" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B185" s="34"/>
       <c r="D185" s="34"/>
@@ -9891,7 +9811,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="34" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B186" s="34"/>
       <c r="D186" s="34"/>
@@ -9906,7 +9826,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="34" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B187" s="34"/>
       <c r="D187" s="34"/>
@@ -9921,7 +9841,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="34" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B188" s="34"/>
       <c r="D188" s="34"/>
@@ -9936,7 +9856,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="34" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B189" s="34"/>
       <c r="D189" s="34"/>
@@ -9951,7 +9871,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="34" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B190" s="34"/>
       <c r="D190" s="34"/>
@@ -9966,7 +9886,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="34" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B191" s="34"/>
       <c r="D191" s="34"/>
@@ -9981,7 +9901,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="34" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B192" s="34"/>
       <c r="D192" s="34"/>
@@ -9996,7 +9916,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="34" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B193" s="34"/>
       <c r="D193" s="34"/>
@@ -10011,7 +9931,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="34" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B194" s="34"/>
       <c r="D194" s="34"/>
@@ -10026,7 +9946,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="34" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B195" s="34"/>
       <c r="D195" s="34"/>
@@ -10041,7 +9961,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="34" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B196" s="34"/>
       <c r="D196" s="34"/>
@@ -10056,7 +9976,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="34" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B197" s="34"/>
       <c r="D197" s="34"/>
@@ -10071,7 +9991,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="34" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B198" s="34"/>
       <c r="D198" s="34"/>
@@ -10086,7 +10006,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="34" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B199" s="34"/>
       <c r="D199" s="34"/>
@@ -10101,7 +10021,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="34" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B200" s="34"/>
       <c r="D200" s="34"/>
@@ -10116,7 +10036,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="34" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B201" s="34"/>
       <c r="D201" s="34"/>
@@ -10131,7 +10051,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="34" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B202" s="34"/>
       <c r="D202" s="34"/>
@@ -10146,7 +10066,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="34" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B203" s="34"/>
       <c r="D203" s="34"/>
@@ -10161,7 +10081,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="34" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B204" s="34"/>
       <c r="D204" s="34"/>
@@ -10176,7 +10096,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="34" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B205" s="34"/>
       <c r="D205" s="34"/>
@@ -10191,7 +10111,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="34" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B206" s="34"/>
       <c r="D206" s="34"/>
@@ -10206,7 +10126,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="34" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B207" s="34"/>
       <c r="D207" s="34"/>
@@ -10221,7 +10141,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="34" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B208" s="34"/>
       <c r="D208" s="34"/>
@@ -10236,7 +10156,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="34" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B209" s="34"/>
       <c r="D209" s="34"/>
@@ -10251,7 +10171,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="34" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B210" s="34"/>
       <c r="D210" s="34"/>
@@ -10266,7 +10186,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="34" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B211" s="34"/>
       <c r="D211" s="34"/>
@@ -10281,7 +10201,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="34" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B212" s="34"/>
       <c r="D212" s="34"/>
@@ -10296,7 +10216,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="34" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B213" s="34"/>
       <c r="D213" s="34"/>
@@ -10311,7 +10231,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="34" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B214" s="34"/>
       <c r="D214" s="34"/>
@@ -10326,7 +10246,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="34" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B215" s="34"/>
       <c r="D215" s="34"/>
@@ -10341,7 +10261,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="34" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B216" s="34"/>
       <c r="D216" s="34"/>
@@ -10356,7 +10276,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="34" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B217" s="34"/>
       <c r="D217" s="34"/>
@@ -10371,7 +10291,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="34" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B218" s="34"/>
       <c r="D218" s="34"/>
@@ -10386,7 +10306,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="34" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B219" s="34"/>
       <c r="D219" s="34"/>
@@ -10401,7 +10321,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="34" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B220" s="34"/>
       <c r="D220" s="34"/>
@@ -10416,7 +10336,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="34" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B221" s="34"/>
       <c r="D221" s="34"/>
@@ -10431,7 +10351,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="34" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B222" s="34"/>
       <c r="D222" s="34"/>
@@ -10446,7 +10366,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="34" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B223" s="34"/>
       <c r="D223" s="34"/>
@@ -10461,7 +10381,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="34" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B224" s="34"/>
       <c r="D224" s="34"/>
@@ -10476,7 +10396,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="34" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B225" s="34"/>
       <c r="D225" s="34"/>
@@ -10491,7 +10411,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="34" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B226" s="34"/>
       <c r="D226" s="34"/>
@@ -10506,7 +10426,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="34" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B227" s="34"/>
       <c r="D227" s="34"/>
@@ -10521,7 +10441,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="34" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B228" s="34"/>
       <c r="D228" s="34"/>
@@ -10536,7 +10456,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="34" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B229" s="34"/>
       <c r="D229" s="34"/>
@@ -10551,7 +10471,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="34" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B230" s="34"/>
       <c r="D230" s="34"/>
@@ -10566,7 +10486,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="34" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B231" s="34"/>
       <c r="D231" s="34"/>
@@ -10581,7 +10501,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="34" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B232" s="34"/>
       <c r="D232" s="34"/>
@@ -10596,7 +10516,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="34" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B233" s="34"/>
       <c r="D233" s="34"/>
@@ -10611,7 +10531,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="34" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B234" s="34"/>
       <c r="D234" s="34"/>
@@ -10626,7 +10546,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="34" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B235" s="34"/>
       <c r="D235" s="34"/>
@@ -10641,7 +10561,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="34" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B236" s="34"/>
       <c r="D236" s="34"/>
@@ -10656,7 +10576,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="34" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B237" s="34"/>
       <c r="D237" s="34"/>
@@ -10671,7 +10591,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="34" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B238" s="34"/>
       <c r="D238" s="34"/>
@@ -10686,7 +10606,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="34" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B239" s="34"/>
       <c r="D239" s="34"/>
@@ -10701,7 +10621,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="34" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B240" s="34"/>
       <c r="D240" s="34"/>
@@ -10716,7 +10636,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="34" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B241" s="34"/>
       <c r="D241" s="34"/>
@@ -10731,7 +10651,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="34" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B242" s="34"/>
       <c r="D242" s="34"/>
@@ -10746,7 +10666,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="34" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B243" s="34"/>
       <c r="D243" s="34"/>
@@ -10761,7 +10681,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="34" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B244" s="34"/>
       <c r="D244" s="34"/>
@@ -10776,7 +10696,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="34" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B245" s="34"/>
       <c r="D245" s="34"/>
@@ -10791,7 +10711,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="34" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B246" s="34"/>
       <c r="D246" s="34"/>
@@ -10806,7 +10726,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="34" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B247" s="34"/>
       <c r="D247" s="34"/>
@@ -10821,7 +10741,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="34" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B248" s="34"/>
       <c r="D248" s="34"/>
@@ -10836,7 +10756,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="34" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B249" s="34"/>
       <c r="D249" s="34"/>
@@ -10851,7 +10771,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="34" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B250" s="34"/>
       <c r="D250" s="34"/>
@@ -10866,7 +10786,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="34" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B251" s="34"/>
       <c r="D251" s="34"/>
@@ -10881,7 +10801,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="34" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B252" s="34"/>
       <c r="D252" s="34"/>
@@ -10896,7 +10816,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="34" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B253" s="34"/>
       <c r="D253" s="34"/>
@@ -10911,7 +10831,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="34" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B254" s="34"/>
       <c r="D254" s="34"/>
@@ -10926,7 +10846,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="34" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B255" s="34"/>
       <c r="D255" s="34"/>
@@ -10941,7 +10861,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="34" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B256" s="34"/>
       <c r="D256" s="34"/>
@@ -10956,7 +10876,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="34" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B257" s="34"/>
       <c r="D257" s="34"/>
@@ -10971,7 +10891,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="34" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B258" s="34"/>
       <c r="D258" s="34"/>
@@ -10986,7 +10906,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="34" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B259" s="34"/>
       <c r="D259" s="34"/>
@@ -11001,7 +10921,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="34" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B260" s="34"/>
       <c r="D260" s="34"/>
@@ -11016,7 +10936,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="34" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B261" s="34"/>
       <c r="D261" s="34"/>
@@ -11031,7 +10951,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="34" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B262" s="34"/>
       <c r="D262" s="34"/>
@@ -11046,7 +10966,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="34" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B263" s="34"/>
       <c r="D263" s="34"/>
@@ -11061,7 +10981,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="34" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B264" s="34"/>
       <c r="D264" s="34"/>
@@ -11076,7 +10996,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="34" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B265" s="34"/>
       <c r="D265" s="34"/>
@@ -11091,7 +11011,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="34" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B266" s="34"/>
       <c r="D266" s="34"/>
@@ -11106,7 +11026,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="34" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B267" s="34"/>
       <c r="D267" s="34"/>
@@ -11121,7 +11041,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="34" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B268" s="34"/>
       <c r="D268" s="34"/>
@@ -11136,7 +11056,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="34" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B269" s="34"/>
       <c r="D269" s="34"/>
@@ -11151,7 +11071,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="34" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B270" s="34"/>
       <c r="D270" s="34"/>
@@ -11166,7 +11086,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="34" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B271" s="34"/>
       <c r="D271" s="34"/>
@@ -11181,7 +11101,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="34" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B272" s="34"/>
       <c r="D272" s="34"/>
@@ -11196,7 +11116,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="34" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B273" s="34"/>
       <c r="D273" s="34"/>
@@ -11211,7 +11131,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="34" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B274" s="34"/>
       <c r="D274" s="34"/>
@@ -11226,7 +11146,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="34" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B275" s="34"/>
       <c r="D275" s="34"/>
@@ -11241,7 +11161,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="34" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B276" s="34"/>
       <c r="D276" s="34"/>
@@ -11256,7 +11176,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="34" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B277" s="34"/>
       <c r="D277" s="34"/>
@@ -11271,7 +11191,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="34" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B278" s="34"/>
       <c r="D278" s="34"/>
@@ -11286,7 +11206,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="34" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B279" s="34"/>
       <c r="D279" s="34"/>
@@ -11301,7 +11221,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="34" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B280" s="34"/>
       <c r="D280" s="34"/>
@@ -11316,7 +11236,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="34" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B281" s="34"/>
       <c r="D281" s="34"/>
@@ -11331,7 +11251,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="34" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B282" s="34"/>
       <c r="D282" s="34"/>
@@ -11346,7 +11266,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="34" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B283" s="34"/>
       <c r="D283" s="34"/>
@@ -11361,7 +11281,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="34" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B284" s="34"/>
       <c r="D284" s="34"/>
@@ -11376,7 +11296,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="34" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B285" s="34"/>
       <c r="D285" s="34"/>
@@ -11391,7 +11311,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="34" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B286" s="34"/>
       <c r="D286" s="34"/>
@@ -11406,7 +11326,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="34" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B287" s="34"/>
       <c r="D287" s="34"/>
@@ -11421,7 +11341,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="34" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B288" s="34"/>
       <c r="D288" s="34"/>
@@ -11436,7 +11356,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="34" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B289" s="34"/>
       <c r="D289" s="34"/>
@@ -11451,7 +11371,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="34" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B290" s="34"/>
       <c r="D290" s="34"/>
@@ -11466,7 +11386,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="34" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B291" s="34"/>
       <c r="D291" s="34"/>
@@ -11480,8 +11400,8 @@
       <c r="L291" s="34"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A292" s="34" t="s">
-        <v>632</v>
+      <c r="A292" s="5" t="s">
+        <v>634</v>
       </c>
       <c r="B292" s="34"/>
       <c r="D292" s="34"/>
@@ -11495,8 +11415,8 @@
       <c r="L292" s="34"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A293" s="34" t="s">
-        <v>633</v>
+      <c r="A293" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="B293" s="34"/>
       <c r="D293" s="34"/>
@@ -11511,7 +11431,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B294" s="34"/>
       <c r="D294" s="34"/>
@@ -11526,7 +11446,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B295" s="34"/>
       <c r="D295" s="34"/>
@@ -11541,7 +11461,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B296" s="34"/>
       <c r="D296" s="34"/>
@@ -11556,7 +11476,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B297" s="34"/>
       <c r="D297" s="34"/>
@@ -11571,7 +11491,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B298" s="34"/>
       <c r="D298" s="34"/>
@@ -11586,7 +11506,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B299" s="34"/>
       <c r="D299" s="34"/>
@@ -11601,7 +11521,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B300" s="34"/>
       <c r="D300" s="34"/>
@@ -11616,7 +11536,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B301" s="34"/>
       <c r="D301" s="34"/>
@@ -11631,7 +11551,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B302" s="34"/>
       <c r="D302" s="34"/>
@@ -11646,7 +11566,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B303" s="34"/>
       <c r="D303" s="34"/>
@@ -11661,7 +11581,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B304" s="34"/>
       <c r="D304" s="34"/>
@@ -11676,7 +11596,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B305" s="34"/>
       <c r="D305" s="34"/>
@@ -11691,7 +11611,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B306" s="34"/>
       <c r="D306" s="34"/>
@@ -11706,7 +11626,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B307" s="34"/>
       <c r="D307" s="34"/>
@@ -11721,7 +11641,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B308" s="34"/>
       <c r="D308" s="34"/>
@@ -11736,7 +11656,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B309" s="34"/>
       <c r="D309" s="34"/>
@@ -11751,7 +11671,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B310" s="34"/>
       <c r="D310" s="34"/>
@@ -11766,7 +11686,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B311" s="34"/>
       <c r="D311" s="34"/>
@@ -11781,7 +11701,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B312" s="34"/>
       <c r="D312" s="34"/>
@@ -11796,7 +11716,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B313" s="34"/>
       <c r="D313" s="34"/>
@@ -11811,7 +11731,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B314" s="34"/>
       <c r="D314" s="34"/>
@@ -11826,7 +11746,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B315" s="34"/>
       <c r="D315" s="34"/>
@@ -11841,7 +11761,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B316" s="34"/>
       <c r="D316" s="34"/>
@@ -11856,7 +11776,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B317" s="34"/>
       <c r="D317" s="34"/>
@@ -11871,7 +11791,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B318" s="34"/>
       <c r="D318" s="34"/>
@@ -11886,7 +11806,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B319" s="34"/>
       <c r="D319" s="34"/>
@@ -11901,7 +11821,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B320" s="34"/>
       <c r="D320" s="34"/>
@@ -11916,7 +11836,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B321" s="34"/>
       <c r="D321" s="34"/>
@@ -11931,7 +11851,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B322" s="34"/>
       <c r="D322" s="34"/>
@@ -11946,7 +11866,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B323" s="34"/>
       <c r="D323" s="34"/>
@@ -11961,7 +11881,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B324" s="34"/>
       <c r="D324" s="34"/>
@@ -11976,7 +11896,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B325" s="34"/>
       <c r="D325" s="34"/>
@@ -11991,7 +11911,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B326" s="34"/>
       <c r="D326" s="34"/>
@@ -12006,7 +11926,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B327" s="34"/>
       <c r="D327" s="34"/>
@@ -12021,7 +11941,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B328" s="34"/>
       <c r="D328" s="34"/>
@@ -12036,7 +11956,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B329" s="34"/>
       <c r="D329" s="34"/>
@@ -12051,7 +11971,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B330" s="34"/>
       <c r="D330" s="34"/>
@@ -12066,7 +11986,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B331" s="34"/>
       <c r="D331" s="34"/>
@@ -12081,7 +12001,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B332" s="34"/>
       <c r="D332" s="34"/>
@@ -12096,7 +12016,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B333" s="34"/>
       <c r="D333" s="34"/>
@@ -12111,7 +12031,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B334" s="34"/>
       <c r="D334" s="34"/>
@@ -12126,7 +12046,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B335" s="34"/>
       <c r="D335" s="34"/>
@@ -12141,7 +12061,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B336" s="34"/>
       <c r="D336" s="34"/>
@@ -12156,7 +12076,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B337" s="34"/>
       <c r="D337" s="34"/>
@@ -12171,7 +12091,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B338" s="34"/>
       <c r="D338" s="34"/>
@@ -12186,7 +12106,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B339" s="34"/>
       <c r="D339" s="34"/>
@@ -12201,7 +12121,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B340" s="34"/>
       <c r="D340" s="34"/>
@@ -12216,7 +12136,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B341" s="34"/>
       <c r="D341" s="34"/>
@@ -12231,7 +12151,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B342" s="34"/>
       <c r="D342" s="34"/>
@@ -12246,7 +12166,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B343" s="34"/>
       <c r="D343" s="34"/>
@@ -12261,7 +12181,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B344" s="34"/>
       <c r="D344" s="34"/>
@@ -12276,7 +12196,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B345" s="34"/>
       <c r="D345" s="34"/>
@@ -12291,7 +12211,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B346" s="34"/>
       <c r="D346" s="34"/>
@@ -12306,7 +12226,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B347" s="34"/>
       <c r="D347" s="34"/>
@@ -12321,7 +12241,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B348" s="34"/>
       <c r="D348" s="34"/>
@@ -12336,7 +12256,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B349" s="34"/>
       <c r="D349" s="34"/>
@@ -12351,7 +12271,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B350" s="34"/>
       <c r="D350" s="34"/>
@@ -12366,7 +12286,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B351" s="34"/>
       <c r="D351" s="34"/>
@@ -12381,7 +12301,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B352" s="34"/>
       <c r="D352" s="34"/>
@@ -12395,8 +12315,8 @@
       <c r="L352" s="34"/>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A353" s="5" t="s">
-        <v>693</v>
+      <c r="A353" s="34" t="s">
+        <v>695</v>
       </c>
       <c r="B353" s="34"/>
       <c r="D353" s="34"/>
@@ -12410,8 +12330,8 @@
       <c r="L353" s="34"/>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A354" s="5" t="s">
-        <v>694</v>
+      <c r="A354" s="34" t="s">
+        <v>696</v>
       </c>
       <c r="B354" s="34"/>
       <c r="D354" s="34"/>
@@ -12426,7 +12346,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="34" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B355" s="34"/>
       <c r="D355" s="34"/>
@@ -12441,7 +12361,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="34" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B356" s="34"/>
       <c r="D356" s="34"/>
@@ -12456,7 +12376,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="34" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B357" s="34"/>
       <c r="D357" s="34"/>
@@ -12471,7 +12391,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="34" t="s">
-        <v>698</v>
+        <v>511</v>
       </c>
       <c r="B358" s="34"/>
       <c r="D358" s="34"/>
@@ -12486,7 +12406,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="34" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B359" s="34"/>
       <c r="D359" s="34"/>
@@ -12501,7 +12421,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="34" t="s">
-        <v>511</v>
+        <v>701</v>
       </c>
       <c r="B360" s="34"/>
       <c r="D360" s="34"/>
@@ -12516,7 +12436,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="34" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B361" s="34"/>
       <c r="D361" s="34"/>
@@ -12531,7 +12451,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="34" t="s">
-        <v>701</v>
+        <v>513</v>
       </c>
       <c r="B362" s="34"/>
       <c r="D362" s="34"/>
@@ -12546,7 +12466,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="34" t="s">
-        <v>702</v>
+        <v>514</v>
       </c>
       <c r="B363" s="34"/>
       <c r="D363" s="34"/>
@@ -12561,7 +12481,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="34" t="s">
-        <v>513</v>
+        <v>703</v>
       </c>
       <c r="B364" s="34"/>
       <c r="D364" s="34"/>
@@ -12576,7 +12496,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="34" t="s">
-        <v>514</v>
+        <v>704</v>
       </c>
       <c r="B365" s="34"/>
       <c r="D365" s="34"/>
@@ -12591,7 +12511,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="34" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B366" s="34"/>
       <c r="D366" s="34"/>
@@ -12606,7 +12526,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="34" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B367" s="34"/>
       <c r="D367" s="34"/>
@@ -12621,7 +12541,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="34" t="s">
-        <v>705</v>
+        <v>515</v>
       </c>
       <c r="B368" s="34"/>
       <c r="D368" s="34"/>
@@ -12636,7 +12556,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="34" t="s">
-        <v>706</v>
+        <v>516</v>
       </c>
       <c r="B369" s="34"/>
       <c r="D369" s="34"/>
@@ -12651,7 +12571,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="34" t="s">
-        <v>515</v>
+        <v>707</v>
       </c>
       <c r="B370" s="34"/>
       <c r="D370" s="34"/>
@@ -12666,7 +12586,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="34" t="s">
-        <v>516</v>
+        <v>708</v>
       </c>
       <c r="B371" s="34"/>
       <c r="D371" s="34"/>
@@ -12681,7 +12601,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="34" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B372" s="34"/>
       <c r="D372" s="34"/>
@@ -12696,7 +12616,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="34" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B373" s="34"/>
       <c r="D373" s="34"/>
@@ -12711,7 +12631,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="34" t="s">
-        <v>709</v>
+        <v>517</v>
       </c>
       <c r="B374" s="34"/>
       <c r="D374" s="34"/>
@@ -12726,7 +12646,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="34" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B375" s="34"/>
       <c r="D375" s="34"/>
@@ -12741,7 +12661,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="34" t="s">
-        <v>517</v>
+        <v>712</v>
       </c>
       <c r="B376" s="34"/>
       <c r="D376" s="34"/>
@@ -12756,7 +12676,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="34" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B377" s="34"/>
       <c r="D377" s="34"/>
@@ -12771,7 +12691,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="34" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B378" s="34"/>
       <c r="D378" s="34"/>
@@ -12786,7 +12706,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="34" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B379" s="34"/>
       <c r="D379" s="34"/>
@@ -12801,7 +12721,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="34" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B380" s="34"/>
       <c r="D380" s="34"/>
@@ -12816,7 +12736,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="34" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B381" s="34"/>
       <c r="D381" s="34"/>
@@ -12831,7 +12751,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="34" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B382" s="34"/>
       <c r="D382" s="34"/>
@@ -12846,7 +12766,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="34" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B383" s="34"/>
       <c r="D383" s="34"/>
@@ -12861,7 +12781,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="34" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B384" s="34"/>
       <c r="D384" s="34"/>
@@ -12876,7 +12796,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="34" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B385" s="34"/>
       <c r="D385" s="34"/>
@@ -12891,7 +12811,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="34" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B386" s="34"/>
       <c r="D386" s="34"/>
@@ -12906,7 +12826,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="34" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B387" s="34"/>
       <c r="D387" s="34"/>
@@ -12921,7 +12841,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="34" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B388" s="34"/>
       <c r="D388" s="34"/>
@@ -12936,7 +12856,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="34" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B389" s="34"/>
       <c r="D389" s="34"/>
@@ -12951,7 +12871,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="34" t="s">
-        <v>724</v>
+        <v>526</v>
       </c>
       <c r="B390" s="34"/>
       <c r="D390" s="34"/>
@@ -12966,7 +12886,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="34" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B391" s="34"/>
       <c r="D391" s="34"/>
@@ -12981,7 +12901,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="34" t="s">
-        <v>526</v>
+        <v>727</v>
       </c>
       <c r="B392" s="34"/>
       <c r="D392" s="34"/>
@@ -12996,7 +12916,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="34" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B393" s="34"/>
       <c r="D393" s="34"/>
@@ -13011,7 +12931,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="34" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B394" s="34"/>
       <c r="D394" s="34"/>
@@ -13026,7 +12946,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="34" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B395" s="34"/>
       <c r="D395" s="34"/>
@@ -13041,7 +12961,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="34" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B396" s="34"/>
       <c r="D396" s="34"/>
@@ -13056,7 +12976,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="34" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B397" s="34"/>
       <c r="D397" s="34"/>
@@ -13071,7 +12991,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="34" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B398" s="34"/>
       <c r="D398" s="34"/>
@@ -13086,7 +13006,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="34" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B399" s="34"/>
       <c r="D399" s="34"/>
@@ -13101,7 +13021,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="34" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B400" s="34"/>
       <c r="D400" s="34"/>
@@ -13116,7 +13036,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="34" t="s">
-        <v>734</v>
+        <v>527</v>
       </c>
       <c r="B401" s="34"/>
       <c r="D401" s="34"/>
@@ -13131,7 +13051,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="34" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B402" s="34"/>
       <c r="D402" s="34"/>
@@ -13146,7 +13066,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="34" t="s">
-        <v>527</v>
+        <v>737</v>
       </c>
       <c r="B403" s="34"/>
       <c r="D403" s="34"/>
@@ -13161,7 +13081,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="34" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B404" s="34"/>
       <c r="D404" s="34"/>
@@ -13176,7 +13096,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="34" t="s">
-        <v>737</v>
+        <v>532</v>
       </c>
       <c r="B405" s="34"/>
       <c r="D405" s="34"/>
@@ -13191,7 +13111,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="34" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B406" s="34"/>
       <c r="D406" s="34"/>
@@ -13206,7 +13126,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="34" t="s">
-        <v>532</v>
+        <v>740</v>
       </c>
       <c r="B407" s="34"/>
       <c r="D407" s="34"/>
@@ -13221,7 +13141,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="34" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B408" s="34"/>
       <c r="D408" s="34"/>
@@ -13236,7 +13156,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="34" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B409" s="34"/>
       <c r="D409" s="34"/>
@@ -13251,7 +13171,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="34" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B410" s="34"/>
       <c r="D410" s="34"/>
@@ -13266,7 +13186,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="34" t="s">
-        <v>742</v>
+        <v>533</v>
       </c>
       <c r="B411" s="34"/>
       <c r="D411" s="34"/>
@@ -13281,7 +13201,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="34" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B412" s="34"/>
       <c r="D412" s="34"/>
@@ -13296,7 +13216,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="34" t="s">
-        <v>533</v>
+        <v>745</v>
       </c>
       <c r="B413" s="34"/>
       <c r="D413" s="34"/>
@@ -13311,7 +13231,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="34" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B414" s="34"/>
       <c r="D414" s="34"/>
@@ -13326,7 +13246,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="34" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B415" s="34"/>
       <c r="D415" s="34"/>
@@ -13341,7 +13261,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="34" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B416" s="34"/>
       <c r="D416" s="34"/>
@@ -13356,7 +13276,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="34" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B417" s="34"/>
       <c r="D417" s="34"/>
@@ -13371,7 +13291,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="34" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B418" s="34"/>
       <c r="D418" s="34"/>
@@ -13386,7 +13306,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="34" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B419" s="34"/>
       <c r="D419" s="34"/>
@@ -13401,7 +13321,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="34" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B420" s="34"/>
       <c r="D420" s="34"/>
@@ -13416,7 +13336,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="34" t="s">
-        <v>751</v>
+        <v>536</v>
       </c>
       <c r="B421" s="34"/>
       <c r="D421" s="34"/>
@@ -13431,7 +13351,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="34" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B422" s="34"/>
       <c r="D422" s="34"/>
@@ -13446,7 +13366,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="34" t="s">
-        <v>536</v>
+        <v>754</v>
       </c>
       <c r="B423" s="34"/>
       <c r="D423" s="34"/>
@@ -13461,7 +13381,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="34" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B424" s="34"/>
       <c r="D424" s="34"/>
@@ -13476,7 +13396,7 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="34" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B425" s="34"/>
       <c r="D425" s="34"/>
@@ -13491,7 +13411,7 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="34" t="s">
-        <v>755</v>
+        <v>537</v>
       </c>
       <c r="B426" s="34"/>
       <c r="D426" s="34"/>
@@ -13506,7 +13426,7 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="34" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B427" s="34"/>
       <c r="D427" s="34"/>
@@ -13521,7 +13441,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="34" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B428" s="34"/>
       <c r="D428" s="34"/>
@@ -13536,7 +13456,7 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="34" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B429" s="34"/>
       <c r="D429" s="34"/>
@@ -13551,7 +13471,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="34" t="s">
-        <v>540</v>
+        <v>759</v>
       </c>
       <c r="B430" s="34"/>
       <c r="D430" s="34"/>
@@ -13566,7 +13486,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="34" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B431" s="34"/>
       <c r="D431" s="34"/>
@@ -13581,7 +13501,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="34" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B432" s="34"/>
       <c r="D432" s="34"/>
@@ -13596,7 +13516,7 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="34" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B433" s="34"/>
       <c r="D433" s="34"/>
@@ -13611,7 +13531,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="34" t="s">
-        <v>761</v>
+        <v>541</v>
       </c>
       <c r="B434" s="34"/>
       <c r="D434" s="34"/>
@@ -13626,7 +13546,7 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="34" t="s">
-        <v>762</v>
+        <v>542</v>
       </c>
       <c r="B435" s="34"/>
       <c r="D435" s="34"/>
@@ -13641,7 +13561,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="34" t="s">
-        <v>541</v>
+        <v>763</v>
       </c>
       <c r="B436" s="34"/>
       <c r="D436" s="34"/>
@@ -13656,7 +13576,7 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="34" t="s">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="B437" s="34"/>
       <c r="D437" s="34"/>
@@ -13671,7 +13591,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="34" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B438" s="34"/>
       <c r="D438" s="34"/>
@@ -13686,7 +13606,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="34" t="s">
-        <v>764</v>
+        <v>544</v>
       </c>
       <c r="B439" s="34"/>
       <c r="D439" s="34"/>
@@ -13701,7 +13621,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="34" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B440" s="34"/>
       <c r="D440" s="34"/>
@@ -13716,7 +13636,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="34" t="s">
-        <v>544</v>
+        <v>767</v>
       </c>
       <c r="B441" s="34"/>
       <c r="D441" s="34"/>
@@ -13731,7 +13651,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="34" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B442" s="34"/>
       <c r="D442" s="34"/>
@@ -13746,7 +13666,7 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="34" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B443" s="34"/>
       <c r="D443" s="34"/>
@@ -13761,7 +13681,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="34" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B444" s="34"/>
       <c r="D444" s="34"/>
@@ -13776,7 +13696,7 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="34" t="s">
-        <v>769</v>
+        <v>545</v>
       </c>
       <c r="B445" s="34"/>
       <c r="D445" s="34"/>
@@ -13791,7 +13711,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="34" t="s">
-        <v>770</v>
+        <v>546</v>
       </c>
       <c r="B446" s="34"/>
       <c r="D446" s="34"/>
@@ -13806,7 +13726,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="34" t="s">
-        <v>545</v>
+        <v>771</v>
       </c>
       <c r="B447" s="34"/>
       <c r="D447" s="34"/>
@@ -13821,7 +13741,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="34" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B448" s="34"/>
       <c r="D448" s="34"/>
@@ -13836,7 +13756,7 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="34" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B449" s="34"/>
       <c r="D449" s="34"/>
@@ -13851,7 +13771,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="34" t="s">
-        <v>547</v>
+        <v>773</v>
       </c>
       <c r="B450" s="34"/>
       <c r="D450" s="34"/>
@@ -13866,7 +13786,7 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="34" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B451" s="34"/>
       <c r="D451" s="34"/>
@@ -13881,7 +13801,7 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="34" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B452" s="34"/>
       <c r="D452" s="34"/>
@@ -13896,7 +13816,7 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="34" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B453" s="34"/>
       <c r="D453" s="34"/>
@@ -13911,7 +13831,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="34" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B454" s="34"/>
       <c r="D454" s="34"/>
@@ -13926,7 +13846,7 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="34" t="s">
-        <v>776</v>
+        <v>553</v>
       </c>
       <c r="B455" s="34"/>
       <c r="D455" s="34"/>
@@ -13941,7 +13861,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="34" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B456" s="34"/>
       <c r="D456" s="34"/>
@@ -13956,7 +13876,7 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="34" t="s">
-        <v>553</v>
+        <v>779</v>
       </c>
       <c r="B457" s="34"/>
       <c r="D457" s="34"/>
@@ -13971,7 +13891,7 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="34" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B458" s="34"/>
       <c r="D458" s="34"/>
@@ -13986,7 +13906,7 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="34" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B459" s="34"/>
       <c r="D459" s="34"/>
@@ -14001,7 +13921,7 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="34" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B460" s="34"/>
       <c r="D460" s="34"/>
@@ -14016,7 +13936,7 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="34" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B461" s="34"/>
       <c r="D461" s="34"/>
@@ -14031,7 +13951,7 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="34" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B462" s="34"/>
       <c r="D462" s="34"/>
@@ -14046,7 +13966,7 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="34" t="s">
-        <v>783</v>
+        <v>556</v>
       </c>
       <c r="B463" s="34"/>
       <c r="D463" s="34"/>
@@ -14061,7 +13981,7 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="34" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B464" s="34"/>
       <c r="D464" s="34"/>
@@ -14076,7 +13996,7 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="34" t="s">
-        <v>556</v>
+        <v>786</v>
       </c>
       <c r="B465" s="34"/>
       <c r="D465" s="34"/>
@@ -14091,7 +14011,7 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="34" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B466" s="34"/>
       <c r="D466" s="34"/>
@@ -14106,7 +14026,7 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="34" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B467" s="34"/>
       <c r="D467" s="34"/>
@@ -14121,7 +14041,7 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="34" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B468" s="34"/>
       <c r="D468" s="34"/>
@@ -14136,7 +14056,7 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="34" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B469" s="34"/>
       <c r="D469" s="34"/>
@@ -14151,7 +14071,7 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="34" t="s">
-        <v>789</v>
+        <v>558</v>
       </c>
       <c r="B470" s="34"/>
       <c r="D470" s="34"/>
@@ -14166,7 +14086,7 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="34" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B471" s="34"/>
       <c r="D471" s="34"/>
@@ -14181,7 +14101,7 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="34" t="s">
-        <v>558</v>
+        <v>792</v>
       </c>
       <c r="B472" s="34"/>
       <c r="D472" s="34"/>
@@ -14196,7 +14116,7 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="34" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B473" s="34"/>
       <c r="D473" s="34"/>
@@ -14211,7 +14131,7 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="34" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B474" s="34"/>
       <c r="D474" s="34"/>
@@ -14226,7 +14146,7 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="34" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B475" s="34"/>
       <c r="D475" s="34"/>
@@ -14241,7 +14161,7 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="34" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B476" s="34"/>
       <c r="D476" s="34"/>
@@ -14256,7 +14176,7 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="34" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B477" s="34"/>
       <c r="D477" s="34"/>
@@ -14271,7 +14191,7 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="34" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B478" s="34"/>
       <c r="D478" s="34"/>
@@ -14286,7 +14206,7 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="34" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B479" s="34"/>
       <c r="D479" s="34"/>
@@ -14301,7 +14221,7 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="34" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B480" s="34"/>
       <c r="D480" s="34"/>
@@ -14316,7 +14236,7 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="34" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B481" s="34"/>
       <c r="D481" s="34"/>
@@ -14331,7 +14251,7 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="34" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B482" s="34"/>
       <c r="D482" s="34"/>
@@ -14346,7 +14266,7 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="34" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B483" s="34"/>
       <c r="D483" s="34"/>
@@ -14361,7 +14281,7 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="34" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B484" s="34"/>
       <c r="D484" s="34"/>
@@ -14376,7 +14296,7 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="34" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B485" s="34"/>
       <c r="D485" s="34"/>
@@ -14391,7 +14311,7 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="34" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B486" s="34"/>
       <c r="D486" s="34"/>
@@ -14406,7 +14326,7 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="34" t="s">
-        <v>805</v>
+        <v>563</v>
       </c>
       <c r="B487" s="34"/>
       <c r="D487" s="34"/>
@@ -14421,7 +14341,7 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="34" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B488" s="34"/>
       <c r="D488" s="34"/>
@@ -14436,7 +14356,7 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="34" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B489" s="34"/>
       <c r="D489" s="34"/>
@@ -14451,7 +14371,7 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="34" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B490" s="34"/>
       <c r="D490" s="34"/>
@@ -14466,7 +14386,7 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="34" t="s">
-        <v>564</v>
+        <v>809</v>
       </c>
       <c r="B491" s="34"/>
       <c r="D491" s="34"/>
@@ -14481,7 +14401,7 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="34" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B492" s="34"/>
       <c r="D492" s="34"/>
@@ -14496,7 +14416,7 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="34" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B493" s="34"/>
       <c r="D493" s="34"/>
@@ -14511,7 +14431,7 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="34" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B494" s="34"/>
       <c r="D494" s="34"/>
@@ -14526,7 +14446,7 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="34" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B495" s="34"/>
       <c r="D495" s="34"/>
@@ -14541,7 +14461,7 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="34" t="s">
-        <v>812</v>
+        <v>567</v>
       </c>
       <c r="B496" s="34"/>
       <c r="D496" s="34"/>
@@ -14556,7 +14476,7 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="34" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B497" s="34"/>
       <c r="D497" s="34"/>
@@ -14571,7 +14491,7 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="34" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B498" s="34"/>
       <c r="D498" s="34"/>
@@ -14586,7 +14506,7 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="34" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B499" s="34"/>
       <c r="D499" s="34"/>
@@ -14601,7 +14521,7 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="34" t="s">
-        <v>568</v>
+        <v>816</v>
       </c>
       <c r="B500" s="34"/>
       <c r="D500" s="34"/>
@@ -14615,8 +14535,8 @@
       <c r="L500" s="34"/>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A501" s="34" t="s">
-        <v>815</v>
+      <c r="A501" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="B501" s="34"/>
       <c r="D501" s="34"/>
@@ -14631,7 +14551,7 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="34" t="s">
-        <v>816</v>
+        <v>573</v>
       </c>
       <c r="B502" s="34"/>
       <c r="D502" s="34"/>
@@ -14645,8 +14565,8 @@
       <c r="L502" s="34"/>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A503" s="40" t="b">
-        <v>0</v>
+      <c r="A503" s="34" t="s">
+        <v>574</v>
       </c>
       <c r="B503" s="34"/>
       <c r="D503" s="34"/>
@@ -14661,7 +14581,7 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="34" t="s">
-        <v>573</v>
+        <v>817</v>
       </c>
       <c r="B504" s="34"/>
       <c r="D504" s="34"/>
@@ -14676,7 +14596,7 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="34" t="s">
-        <v>574</v>
+        <v>818</v>
       </c>
       <c r="B505" s="34"/>
       <c r="D505" s="34"/>
@@ -14691,7 +14611,7 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="34" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B506" s="34"/>
       <c r="D506" s="34"/>
@@ -14706,7 +14626,7 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="34" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B507" s="34"/>
       <c r="D507" s="34"/>
@@ -14721,7 +14641,7 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="34" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B508" s="34"/>
       <c r="D508" s="34"/>
@@ -14736,7 +14656,7 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="34" t="s">
-        <v>820</v>
+        <v>576</v>
       </c>
       <c r="B509" s="34"/>
       <c r="D509" s="34"/>
@@ -14751,7 +14671,7 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="34" t="s">
-        <v>821</v>
+        <v>577</v>
       </c>
       <c r="B510" s="34"/>
       <c r="D510" s="34"/>
@@ -14766,7 +14686,7 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="34" t="s">
-        <v>576</v>
+        <v>822</v>
       </c>
       <c r="B511" s="34"/>
       <c r="D511" s="34"/>
@@ -14781,7 +14701,7 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="34" t="s">
-        <v>577</v>
+        <v>823</v>
       </c>
       <c r="B512" s="34"/>
       <c r="D512" s="34"/>
@@ -14796,7 +14716,7 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="34" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B513" s="34"/>
       <c r="D513" s="34"/>
@@ -14811,7 +14731,7 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="34" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B514" s="34"/>
       <c r="D514" s="34"/>
@@ -14826,7 +14746,7 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="34" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B515" s="34"/>
       <c r="D515" s="34"/>
@@ -14841,7 +14761,7 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="34" t="s">
-        <v>825</v>
+        <v>580</v>
       </c>
       <c r="B516" s="34"/>
       <c r="D516" s="34"/>
@@ -14856,7 +14776,7 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="34" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B517" s="34"/>
       <c r="D517" s="34"/>
@@ -14871,7 +14791,7 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="34" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B518" s="34"/>
       <c r="D518" s="34"/>
@@ -14886,7 +14806,7 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="34" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B519" s="34"/>
       <c r="D519" s="34"/>
@@ -14901,7 +14821,7 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="34" t="s">
-        <v>581</v>
+        <v>829</v>
       </c>
       <c r="B520" s="34"/>
       <c r="D520" s="34"/>
@@ -14916,7 +14836,7 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="34" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B521" s="34"/>
       <c r="D521" s="34"/>
@@ -14931,7 +14851,7 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="34" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B522" s="34"/>
       <c r="D522" s="34"/>
@@ -14946,7 +14866,7 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="34" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B523" s="34"/>
       <c r="D523" s="34"/>
@@ -14961,7 +14881,7 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="34" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B524" s="34"/>
       <c r="D524" s="34"/>
@@ -14976,7 +14896,7 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="34" t="s">
-        <v>832</v>
+        <v>583</v>
       </c>
       <c r="B525" s="34"/>
       <c r="D525" s="34"/>
@@ -14991,7 +14911,7 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="34" t="s">
-        <v>833</v>
+        <v>584</v>
       </c>
       <c r="B526" s="34"/>
       <c r="D526" s="34"/>
@@ -15006,7 +14926,7 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="34" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B527" s="34"/>
       <c r="D527" s="34"/>
@@ -15021,7 +14941,7 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="34" t="s">
-        <v>584</v>
+        <v>834</v>
       </c>
       <c r="B528" s="34"/>
       <c r="D528" s="34"/>
@@ -15036,7 +14956,7 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="34" t="s">
-        <v>585</v>
+        <v>835</v>
       </c>
       <c r="B529" s="34"/>
       <c r="D529" s="34"/>
@@ -15051,7 +14971,7 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="34" t="s">
-        <v>834</v>
+        <v>586</v>
       </c>
       <c r="B530" s="34"/>
       <c r="D530" s="34"/>
@@ -15066,7 +14986,7 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="34" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B531" s="34"/>
       <c r="D531" s="34"/>
@@ -15081,7 +15001,7 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="34" t="s">
-        <v>586</v>
+        <v>837</v>
       </c>
       <c r="B532" s="34"/>
       <c r="D532" s="34"/>
@@ -15096,7 +15016,7 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="34" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B533" s="34"/>
       <c r="D533" s="34"/>
@@ -15111,7 +15031,7 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="34" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B534" s="34"/>
       <c r="D534" s="34"/>
@@ -15126,7 +15046,7 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="34" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B535" s="34"/>
       <c r="D535" s="34"/>
@@ -15141,7 +15061,7 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="34" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B536" s="34"/>
       <c r="D536" s="34"/>
@@ -15156,7 +15076,7 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="34" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B537" s="34"/>
       <c r="D537" s="34"/>
@@ -15171,7 +15091,7 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="34" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B538" s="34"/>
       <c r="D538" s="34"/>
@@ -15186,7 +15106,7 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="34" t="s">
-        <v>842</v>
+        <v>592</v>
       </c>
       <c r="B539" s="34"/>
       <c r="D539" s="34"/>
@@ -15201,7 +15121,7 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="34" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B540" s="34"/>
       <c r="D540" s="34"/>
@@ -15216,7 +15136,7 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="34" t="s">
-        <v>592</v>
+        <v>845</v>
       </c>
       <c r="B541" s="34"/>
       <c r="D541" s="34"/>
@@ -15231,7 +15151,7 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="34" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B542" s="34"/>
       <c r="D542" s="34"/>
@@ -15246,7 +15166,7 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="34" t="s">
-        <v>845</v>
+        <v>594</v>
       </c>
       <c r="B543" s="34"/>
       <c r="D543" s="34"/>
@@ -15261,7 +15181,7 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="34" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B544" s="34"/>
       <c r="D544" s="34"/>
@@ -15276,7 +15196,7 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="34" t="s">
-        <v>594</v>
+        <v>848</v>
       </c>
       <c r="B545" s="34"/>
       <c r="D545" s="34"/>
@@ -15291,7 +15211,7 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="34" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B546" s="34"/>
       <c r="D546" s="34"/>
@@ -15306,7 +15226,7 @@
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="34" t="s">
-        <v>848</v>
+        <v>596</v>
       </c>
       <c r="B547" s="34"/>
       <c r="D547" s="34"/>
@@ -15321,7 +15241,7 @@
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="34" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B548" s="34"/>
       <c r="D548" s="34"/>
@@ -15336,7 +15256,7 @@
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="34" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B549" s="34"/>
       <c r="D549" s="34"/>
@@ -15351,7 +15271,7 @@
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="34" t="s">
-        <v>850</v>
+        <v>598</v>
       </c>
       <c r="B550" s="34"/>
       <c r="D550" s="34"/>
@@ -15366,7 +15286,7 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="34" t="s">
-        <v>597</v>
+        <v>851</v>
       </c>
       <c r="B551" s="34"/>
       <c r="D551" s="34"/>
@@ -15381,7 +15301,7 @@
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="34" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B552" s="34"/>
       <c r="D552" s="34"/>
@@ -15396,7 +15316,7 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="34" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B553" s="34"/>
       <c r="D553" s="34"/>
@@ -15411,7 +15331,7 @@
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="34" t="s">
-        <v>599</v>
+        <v>853</v>
       </c>
       <c r="B554" s="34"/>
       <c r="D554" s="34"/>
@@ -15426,7 +15346,7 @@
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="34" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B555" s="34"/>
       <c r="D555" s="34"/>
@@ -15441,7 +15361,7 @@
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="34" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B556" s="34"/>
       <c r="D556" s="34"/>
@@ -15456,7 +15376,7 @@
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="34" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B557" s="34"/>
       <c r="D557" s="34"/>
@@ -15471,7 +15391,7 @@
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="34" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B558" s="34"/>
       <c r="D558" s="34"/>
@@ -15486,7 +15406,7 @@
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="34" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B559" s="34"/>
       <c r="D559" s="34"/>
@@ -15501,7 +15421,7 @@
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="34" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B560" s="34"/>
       <c r="D560" s="34"/>
@@ -15516,7 +15436,7 @@
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="34" t="s">
-        <v>858</v>
+        <v>602</v>
       </c>
       <c r="B561" s="34"/>
       <c r="D561" s="34"/>
@@ -15531,7 +15451,7 @@
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="34" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B562" s="34"/>
       <c r="D562" s="34"/>
@@ -15546,7 +15466,7 @@
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" s="34" t="s">
-        <v>602</v>
+        <v>861</v>
       </c>
       <c r="B563" s="34"/>
       <c r="D563" s="34"/>
@@ -15561,7 +15481,7 @@
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="34" t="s">
-        <v>860</v>
+        <v>603</v>
       </c>
       <c r="B564" s="34"/>
       <c r="D564" s="34"/>
@@ -15576,7 +15496,7 @@
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="34" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B565" s="34"/>
       <c r="D565" s="34"/>
@@ -15591,7 +15511,7 @@
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="34" t="s">
-        <v>603</v>
+        <v>863</v>
       </c>
       <c r="B566" s="34"/>
       <c r="D566" s="34"/>
@@ -15606,7 +15526,7 @@
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="34" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B567" s="34"/>
       <c r="D567" s="34"/>
@@ -15621,7 +15541,7 @@
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="34" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B568" s="34"/>
       <c r="D568" s="34"/>
@@ -15636,7 +15556,7 @@
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="34" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B569" s="34"/>
       <c r="D569" s="34"/>
@@ -15651,7 +15571,7 @@
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="34" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B570" s="34"/>
       <c r="D570" s="34"/>
@@ -15666,7 +15586,7 @@
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="34" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B571" s="34"/>
       <c r="D571" s="34"/>
@@ -15681,7 +15601,7 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="34" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B572" s="34"/>
       <c r="D572" s="34"/>
@@ -15696,7 +15616,7 @@
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="34" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B573" s="34"/>
       <c r="D573" s="34"/>
@@ -15711,7 +15631,7 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="34" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B574" s="34"/>
       <c r="D574" s="34"/>
@@ -15726,7 +15646,7 @@
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="34" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B575" s="34"/>
       <c r="D575" s="34"/>
@@ -15741,7 +15661,7 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="34" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B576" s="34"/>
       <c r="D576" s="34"/>
@@ -15756,7 +15676,7 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="34" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B577" s="34"/>
       <c r="D577" s="34"/>
@@ -15771,7 +15691,7 @@
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="34" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B578" s="34"/>
       <c r="D578" s="34"/>
@@ -15786,7 +15706,7 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="34" t="s">
-        <v>874</v>
+        <v>606</v>
       </c>
       <c r="B579" s="34"/>
       <c r="D579" s="34"/>
@@ -15801,7 +15721,7 @@
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="34" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B580" s="34"/>
       <c r="D580" s="34"/>
@@ -15816,7 +15736,7 @@
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="34" t="s">
-        <v>606</v>
+        <v>877</v>
       </c>
       <c r="B581" s="34"/>
       <c r="D581" s="34"/>
@@ -15831,7 +15751,7 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="34" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B582" s="34"/>
       <c r="D582" s="34"/>
@@ -15846,7 +15766,7 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="34" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B583" s="34"/>
       <c r="D583" s="34"/>
@@ -15861,7 +15781,7 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="34" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B584" s="34"/>
       <c r="D584" s="34"/>
@@ -15876,7 +15796,7 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="34" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B585" s="34"/>
       <c r="D585" s="34"/>
@@ -15891,7 +15811,7 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="34" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B586" s="34"/>
       <c r="D586" s="34"/>
@@ -15906,7 +15826,7 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="34" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B587" s="34"/>
       <c r="D587" s="34"/>
@@ -15921,7 +15841,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="34" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B588" s="34"/>
       <c r="D588" s="34"/>
@@ -15936,7 +15856,7 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="34" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B589" s="34"/>
       <c r="D589" s="34"/>
@@ -15951,7 +15871,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="34" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B590" s="34"/>
       <c r="D590" s="34"/>
@@ -15966,7 +15886,7 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="34" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B591" s="34"/>
       <c r="D591" s="34"/>
@@ -15981,7 +15901,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="34" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B592" s="34"/>
       <c r="D592" s="34"/>
@@ -15996,7 +15916,7 @@
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="34" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B593" s="34"/>
       <c r="D593" s="34"/>
@@ -16011,7 +15931,7 @@
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="34" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B594" s="34"/>
       <c r="D594" s="34"/>
@@ -16026,7 +15946,7 @@
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="34" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B595" s="34"/>
       <c r="D595" s="34"/>
@@ -16041,7 +15961,7 @@
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="34" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B596" s="34"/>
       <c r="D596" s="34"/>
@@ -16056,7 +15976,7 @@
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="34" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B597" s="34"/>
       <c r="D597" s="34"/>
@@ -16071,7 +15991,7 @@
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="34" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B598" s="34"/>
       <c r="D598" s="34"/>
@@ -16086,7 +16006,7 @@
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="34" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B599" s="34"/>
       <c r="D599" s="34"/>
@@ -16101,7 +16021,7 @@
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="34" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B600" s="34"/>
       <c r="D600" s="34"/>
@@ -16116,7 +16036,7 @@
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="34" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B601" s="34"/>
       <c r="D601" s="34"/>
@@ -16131,7 +16051,7 @@
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="34" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B602" s="34"/>
       <c r="D602" s="34"/>
@@ -16146,7 +16066,7 @@
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="34" t="s">
-        <v>897</v>
+        <v>610</v>
       </c>
       <c r="B603" s="34"/>
       <c r="D603" s="34"/>
@@ -16161,7 +16081,7 @@
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="34" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B604" s="34"/>
       <c r="D604" s="34"/>
@@ -16176,7 +16096,7 @@
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="34" t="s">
-        <v>610</v>
+        <v>900</v>
       </c>
       <c r="B605" s="34"/>
       <c r="D605" s="34"/>
@@ -16191,7 +16111,7 @@
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="34" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B606" s="34"/>
       <c r="D606" s="34"/>
@@ -16206,7 +16126,7 @@
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="34" t="s">
-        <v>900</v>
+        <v>611</v>
       </c>
       <c r="B607" s="34"/>
       <c r="D607" s="34"/>
@@ -16221,7 +16141,7 @@
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="34" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B608" s="34"/>
       <c r="D608" s="34"/>
@@ -16236,7 +16156,7 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="34" t="s">
-        <v>611</v>
+        <v>903</v>
       </c>
       <c r="B609" s="34"/>
       <c r="D609" s="34"/>
@@ -16251,7 +16171,7 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="34" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B610" s="34"/>
       <c r="D610" s="34"/>
@@ -16266,7 +16186,7 @@
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="34" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B611" s="34"/>
       <c r="D611" s="34"/>
@@ -16281,7 +16201,7 @@
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="34" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B612" s="34"/>
       <c r="D612" s="34"/>
@@ -16296,7 +16216,7 @@
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="34" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B613" s="34"/>
       <c r="D613" s="34"/>
@@ -16311,7 +16231,7 @@
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="34" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B614" s="34"/>
       <c r="D614" s="34"/>
@@ -16326,7 +16246,7 @@
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" s="34" t="s">
-        <v>907</v>
+        <v>616</v>
       </c>
       <c r="B615" s="34"/>
       <c r="D615" s="34"/>
@@ -16341,7 +16261,7 @@
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" s="34" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B616" s="34"/>
       <c r="D616" s="34"/>
@@ -16356,7 +16276,7 @@
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="34" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B617" s="34"/>
       <c r="D617" s="34"/>
@@ -16371,7 +16291,7 @@
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="34" t="s">
-        <v>909</v>
+        <v>623</v>
       </c>
       <c r="B618" s="34"/>
       <c r="D618" s="34"/>
@@ -16386,7 +16306,7 @@
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="34" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B619" s="34"/>
       <c r="D619" s="34"/>
@@ -16401,7 +16321,7 @@
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="34" t="s">
-        <v>623</v>
+        <v>910</v>
       </c>
       <c r="B620" s="34"/>
       <c r="D620" s="34"/>
@@ -16416,7 +16336,7 @@
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="34" t="s">
-        <v>624</v>
+        <v>911</v>
       </c>
       <c r="B621" s="34"/>
       <c r="D621" s="34"/>
@@ -16431,7 +16351,7 @@
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="34" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B622" s="34"/>
       <c r="D622" s="34"/>
@@ -16446,7 +16366,7 @@
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="34" t="s">
-        <v>911</v>
+        <v>625</v>
       </c>
       <c r="B623" s="34"/>
       <c r="D623" s="34"/>
@@ -16461,7 +16381,7 @@
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="34" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B624" s="34"/>
       <c r="D624" s="34"/>
@@ -16476,7 +16396,7 @@
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" s="34" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B625" s="34"/>
       <c r="D625" s="34"/>
@@ -16491,7 +16411,7 @@
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" s="34" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B626" s="34"/>
       <c r="D626" s="34"/>
@@ -16506,7 +16426,7 @@
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="34" t="s">
-        <v>626</v>
+        <v>915</v>
       </c>
       <c r="B627" s="34"/>
       <c r="D627" s="34"/>
@@ -16521,7 +16441,7 @@
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" s="34" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B628" s="34"/>
       <c r="D628" s="34"/>
@@ -16536,7 +16456,7 @@
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" s="34" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B629" s="34"/>
       <c r="D629" s="34"/>
@@ -16551,7 +16471,7 @@
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" s="34" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B630" s="34"/>
       <c r="D630" s="34"/>
@@ -16566,7 +16486,7 @@
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" s="34" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B631" s="34"/>
       <c r="D631" s="34"/>
@@ -16581,7 +16501,7 @@
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" s="34" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B632" s="34"/>
       <c r="D632" s="34"/>
@@ -16596,7 +16516,7 @@
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="34" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B633" s="34"/>
       <c r="D633" s="34"/>
@@ -16611,7 +16531,7 @@
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="34" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B634" s="34"/>
       <c r="D634" s="34"/>
@@ -16626,7 +16546,7 @@
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" s="34" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B635" s="34"/>
       <c r="D635" s="34"/>
@@ -16641,7 +16561,7 @@
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" s="34" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B636" s="34"/>
       <c r="D636" s="34"/>
@@ -16656,7 +16576,7 @@
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" s="34" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B637" s="34"/>
       <c r="D637" s="34"/>
@@ -16671,7 +16591,7 @@
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" s="34" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B638" s="34"/>
       <c r="D638" s="34"/>
@@ -16686,7 +16606,7 @@
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" s="34" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B639" s="34"/>
       <c r="D639" s="34"/>
@@ -16701,7 +16621,7 @@
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" s="34" t="s">
-        <v>926</v>
+        <v>627</v>
       </c>
       <c r="B640" s="34"/>
       <c r="D640" s="34"/>
@@ -16716,7 +16636,7 @@
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641" s="34" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B641" s="34"/>
       <c r="D641" s="34"/>
@@ -16731,7 +16651,7 @@
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642" s="34" t="s">
-        <v>627</v>
+        <v>929</v>
       </c>
       <c r="B642" s="34"/>
       <c r="D642" s="34"/>
@@ -16746,7 +16666,7 @@
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643" s="34" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B643" s="34"/>
       <c r="D643" s="34"/>
@@ -16761,7 +16681,7 @@
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644" s="34" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B644" s="34"/>
       <c r="D644" s="34"/>
@@ -16776,7 +16696,7 @@
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645" s="34" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B645" s="34"/>
       <c r="D645" s="34"/>
@@ -16791,7 +16711,7 @@
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646" s="34" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B646" s="34"/>
       <c r="D646" s="34"/>
@@ -16806,7 +16726,7 @@
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647" s="34" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B647" s="34"/>
       <c r="D647" s="34"/>
@@ -16821,7 +16741,7 @@
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" s="34" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B648" s="34"/>
       <c r="D648" s="34"/>
@@ -16836,7 +16756,7 @@
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" s="34" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B649" s="34"/>
       <c r="D649" s="34"/>
@@ -16851,7 +16771,7 @@
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650" s="34" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B650" s="34"/>
       <c r="D650" s="34"/>
@@ -16866,7 +16786,7 @@
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" s="34" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B651" s="34"/>
       <c r="D651" s="34"/>
@@ -16881,7 +16801,7 @@
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652" s="34" t="s">
-        <v>937</v>
+        <v>631</v>
       </c>
       <c r="B652" s="34"/>
       <c r="D652" s="34"/>
@@ -16896,7 +16816,7 @@
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653" s="34" t="s">
-        <v>938</v>
+        <v>635</v>
       </c>
       <c r="B653" s="34"/>
       <c r="D653" s="34"/>
@@ -16911,7 +16831,7 @@
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654" s="34" t="s">
-        <v>631</v>
+        <v>939</v>
       </c>
       <c r="B654" s="34"/>
       <c r="D654" s="34"/>
@@ -16926,7 +16846,7 @@
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" s="34" t="s">
-        <v>635</v>
+        <v>940</v>
       </c>
       <c r="B655" s="34"/>
       <c r="D655" s="34"/>
@@ -16941,7 +16861,7 @@
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" s="34" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B656" s="34"/>
       <c r="D656" s="34"/>
@@ -16956,7 +16876,7 @@
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" s="34" t="s">
-        <v>940</v>
+        <v>640</v>
       </c>
       <c r="B657" s="34"/>
       <c r="D657" s="34"/>
@@ -16971,7 +16891,7 @@
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" s="34" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B658" s="34"/>
       <c r="D658" s="34"/>
@@ -16986,7 +16906,7 @@
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659" s="34" t="s">
-        <v>640</v>
+        <v>943</v>
       </c>
       <c r="B659" s="34"/>
       <c r="D659" s="34"/>
@@ -17001,7 +16921,7 @@
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660" s="34" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B660" s="34"/>
       <c r="D660" s="34"/>
@@ -17016,7 +16936,7 @@
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" s="34" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B661" s="34"/>
       <c r="D661" s="34"/>
@@ -17031,7 +16951,7 @@
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" s="34" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B662" s="34"/>
       <c r="D662" s="34"/>
@@ -17046,7 +16966,7 @@
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" s="34" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B663" s="34"/>
       <c r="D663" s="34"/>
@@ -17061,7 +16981,7 @@
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" s="34" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B664" s="34"/>
       <c r="D664" s="34"/>
@@ -17076,7 +16996,7 @@
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" s="34" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B665" s="34"/>
       <c r="D665" s="34"/>
@@ -17091,7 +17011,7 @@
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666" s="34" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B666" s="34"/>
       <c r="D666" s="34"/>
@@ -17106,7 +17026,7 @@
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667" s="34" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B667" s="34"/>
       <c r="D667" s="34"/>
@@ -17121,7 +17041,7 @@
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668" s="34" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B668" s="34"/>
       <c r="D668" s="34"/>
@@ -17136,7 +17056,7 @@
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" s="34" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B669" s="34"/>
       <c r="D669" s="34"/>
@@ -17151,7 +17071,7 @@
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670" s="34" t="s">
-        <v>952</v>
+        <v>642</v>
       </c>
       <c r="B670" s="34"/>
       <c r="D670" s="34"/>
@@ -17166,7 +17086,7 @@
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" s="34" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B671" s="34"/>
       <c r="D671" s="34"/>
@@ -17181,7 +17101,7 @@
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" s="34" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B672" s="34"/>
       <c r="D672" s="34"/>
@@ -17196,7 +17116,7 @@
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673" s="34" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B673" s="34"/>
       <c r="D673" s="34"/>
@@ -17211,7 +17131,7 @@
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674" s="34" t="s">
-        <v>644</v>
+        <v>956</v>
       </c>
       <c r="B674" s="34"/>
       <c r="D674" s="34"/>
@@ -17226,7 +17146,7 @@
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" s="34" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B675" s="34"/>
       <c r="D675" s="34"/>
@@ -17241,7 +17161,7 @@
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" s="34" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B676" s="34"/>
       <c r="D676" s="34"/>
@@ -17256,7 +17176,7 @@
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677" s="34" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B677" s="34"/>
       <c r="D677" s="34"/>
@@ -17271,7 +17191,7 @@
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A678" s="34" t="s">
-        <v>958</v>
+        <v>647</v>
       </c>
       <c r="B678" s="34"/>
       <c r="D678" s="34"/>
@@ -17286,7 +17206,7 @@
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679" s="34" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B679" s="34"/>
       <c r="D679" s="34"/>
@@ -17301,7 +17221,7 @@
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" s="34" t="s">
-        <v>647</v>
+        <v>961</v>
       </c>
       <c r="B680" s="34"/>
       <c r="D680" s="34"/>
@@ -17316,7 +17236,7 @@
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681" s="34" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B681" s="34"/>
       <c r="D681" s="34"/>
@@ -17331,7 +17251,7 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" s="34" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B682" s="34"/>
       <c r="D682" s="34"/>
@@ -17346,7 +17266,7 @@
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683" s="34" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B683" s="34"/>
       <c r="D683" s="34"/>
@@ -17361,7 +17281,7 @@
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" s="34" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B684" s="34"/>
       <c r="D684" s="34"/>
@@ -17376,7 +17296,7 @@
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" s="34" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B685" s="34"/>
       <c r="D685" s="34"/>
@@ -17391,7 +17311,7 @@
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686" s="34" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B686" s="34"/>
       <c r="D686" s="34"/>
@@ -17406,7 +17326,7 @@
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687" s="34" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B687" s="34"/>
       <c r="D687" s="34"/>
@@ -17421,7 +17341,7 @@
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688" s="34" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B688" s="34"/>
       <c r="D688" s="34"/>
@@ -17436,7 +17356,7 @@
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689" s="34" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B689" s="34"/>
       <c r="D689" s="34"/>
@@ -17451,7 +17371,7 @@
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690" s="34" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B690" s="34"/>
       <c r="D690" s="34"/>
@@ -17466,7 +17386,7 @@
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691" s="34" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B691" s="34"/>
       <c r="D691" s="34"/>
@@ -17481,7 +17401,7 @@
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692" s="34" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B692" s="34"/>
       <c r="D692" s="34"/>
@@ -17496,7 +17416,7 @@
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693" s="34" t="s">
-        <v>972</v>
+        <v>655</v>
       </c>
       <c r="B693" s="34"/>
       <c r="D693" s="34"/>
@@ -17511,7 +17431,7 @@
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A694" s="34" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B694" s="34"/>
       <c r="D694" s="34"/>
@@ -17526,7 +17446,7 @@
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695" s="34" t="s">
-        <v>655</v>
+        <v>975</v>
       </c>
       <c r="B695" s="34"/>
       <c r="D695" s="34"/>
@@ -17541,7 +17461,7 @@
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696" s="34" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B696" s="34"/>
       <c r="D696" s="34"/>
@@ -17556,7 +17476,7 @@
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697" s="34" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B697" s="34"/>
       <c r="D697" s="34"/>
@@ -17571,7 +17491,7 @@
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698" s="34" t="s">
-        <v>976</v>
+        <v>659</v>
       </c>
       <c r="B698" s="34"/>
       <c r="D698" s="34"/>
@@ -17586,7 +17506,7 @@
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699" s="34" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B699" s="34"/>
       <c r="D699" s="34"/>
@@ -17601,7 +17521,7 @@
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A700" s="34" t="s">
-        <v>659</v>
+        <v>979</v>
       </c>
       <c r="B700" s="34"/>
       <c r="D700" s="34"/>
@@ -17616,7 +17536,7 @@
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A701" s="34" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B701" s="34"/>
       <c r="D701" s="34"/>
@@ -17631,7 +17551,7 @@
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702" s="34" t="s">
-        <v>979</v>
+        <v>663</v>
       </c>
       <c r="B702" s="34"/>
       <c r="D702" s="34"/>
@@ -17646,7 +17566,7 @@
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703" s="34" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B703" s="34"/>
       <c r="D703" s="34"/>
@@ -17661,7 +17581,7 @@
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A704" s="34" t="s">
-        <v>663</v>
+        <v>982</v>
       </c>
       <c r="B704" s="34"/>
       <c r="D704" s="34"/>
@@ -17676,7 +17596,7 @@
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="34" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B705" s="34"/>
       <c r="D705" s="34"/>
@@ -17691,7 +17611,7 @@
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" s="34" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B706" s="34"/>
       <c r="D706" s="34"/>
@@ -17706,7 +17626,7 @@
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" s="34" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B707" s="34"/>
       <c r="D707" s="34"/>
@@ -17721,7 +17641,7 @@
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" s="34" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B708" s="34"/>
       <c r="D708" s="34"/>
@@ -17736,7 +17656,7 @@
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" s="34" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B709" s="34"/>
       <c r="D709" s="34"/>
@@ -17751,7 +17671,7 @@
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" s="34" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B710" s="34"/>
       <c r="D710" s="34"/>
@@ -17766,7 +17686,7 @@
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" s="34" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B711" s="34"/>
       <c r="D711" s="34"/>
@@ -17781,7 +17701,7 @@
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" s="34" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B712" s="34"/>
       <c r="D712" s="34"/>
@@ -17796,7 +17716,7 @@
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" s="34" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B713" s="34"/>
       <c r="D713" s="34"/>
@@ -17811,7 +17731,7 @@
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" s="34" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B714" s="34"/>
       <c r="D714" s="34"/>
@@ -17826,7 +17746,7 @@
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715" s="34" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B715" s="34"/>
       <c r="D715" s="34"/>
@@ -17841,7 +17761,7 @@
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" s="34" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B716" s="34"/>
       <c r="D716" s="34"/>
@@ -17856,7 +17776,7 @@
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" s="34" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B717" s="34"/>
       <c r="D717" s="34"/>
@@ -17871,7 +17791,7 @@
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" s="34" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B718" s="34"/>
       <c r="D718" s="34"/>
@@ -17886,7 +17806,7 @@
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" s="34" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B719" s="34"/>
       <c r="D719" s="34"/>
@@ -17901,7 +17821,7 @@
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" s="34" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B720" s="34"/>
       <c r="D720" s="34"/>
@@ -17916,7 +17836,7 @@
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721" s="34" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B721" s="34"/>
       <c r="D721" s="34"/>
@@ -17931,7 +17851,7 @@
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722" s="34" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B722" s="34"/>
       <c r="D722" s="34"/>
@@ -17946,7 +17866,7 @@
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723" s="34" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B723" s="34"/>
       <c r="D723" s="34"/>
@@ -17961,7 +17881,7 @@
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A724" s="34" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B724" s="34"/>
       <c r="D724" s="34"/>
@@ -17976,7 +17896,7 @@
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725" s="34" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B725" s="34"/>
       <c r="D725" s="34"/>
@@ -17991,7 +17911,7 @@
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726" s="34" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B726" s="34"/>
       <c r="D726" s="34"/>
@@ -18006,7 +17926,7 @@
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727" s="34" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B727" s="34"/>
       <c r="D727" s="34"/>
@@ -18021,7 +17941,7 @@
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728" s="34" t="s">
-        <v>1004</v>
+        <v>665</v>
       </c>
       <c r="B728" s="34"/>
       <c r="D728" s="34"/>
@@ -18036,7 +17956,7 @@
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A729" s="34" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B729" s="34"/>
       <c r="D729" s="34"/>
@@ -18051,7 +17971,7 @@
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730" s="34" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B730" s="34"/>
       <c r="D730" s="34"/>
@@ -18066,7 +17986,7 @@
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731" s="34" t="s">
-        <v>1006</v>
+        <v>667</v>
       </c>
       <c r="B731" s="34"/>
       <c r="D731" s="34"/>
@@ -18081,7 +18001,7 @@
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732" s="34" t="s">
-        <v>666</v>
+        <v>1007</v>
       </c>
       <c r="B732" s="34"/>
       <c r="D732" s="34"/>
@@ -18096,7 +18016,7 @@
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733" s="34" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B733" s="34"/>
       <c r="D733" s="34"/>
@@ -18111,7 +18031,7 @@
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734" s="34" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B734" s="34"/>
       <c r="D734" s="34"/>
@@ -18126,7 +18046,7 @@
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735" s="34" t="s">
-        <v>669</v>
+        <v>1009</v>
       </c>
       <c r="B735" s="34"/>
       <c r="D735" s="34"/>
@@ -18141,7 +18061,7 @@
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A736" s="34" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B736" s="34"/>
       <c r="D736" s="34"/>
@@ -18156,7 +18076,7 @@
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A737" s="34" t="s">
-        <v>1009</v>
+        <v>670</v>
       </c>
       <c r="B737" s="34"/>
       <c r="D737" s="34"/>
@@ -18171,7 +18091,7 @@
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A738" s="34" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B738" s="34"/>
       <c r="D738" s="34"/>
@@ -18186,7 +18106,7 @@
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A739" s="34" t="s">
-        <v>670</v>
+        <v>1012</v>
       </c>
       <c r="B739" s="34"/>
       <c r="D739" s="34"/>
@@ -18201,7 +18121,7 @@
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A740" s="34" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B740" s="34"/>
       <c r="D740" s="34"/>
@@ -18216,7 +18136,7 @@
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A741" s="34" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B741" s="34"/>
       <c r="D741" s="34"/>
@@ -18231,7 +18151,7 @@
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A742" s="34" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B742" s="34"/>
       <c r="D742" s="34"/>
@@ -18246,7 +18166,7 @@
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A743" s="34" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B743" s="34"/>
       <c r="D743" s="34"/>
@@ -18261,7 +18181,7 @@
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A744" s="34" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B744" s="34"/>
       <c r="D744" s="34"/>
@@ -18276,7 +18196,7 @@
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A745" s="34" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B745" s="34"/>
       <c r="D745" s="34"/>
@@ -18291,7 +18211,7 @@
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A746" s="34" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B746" s="34"/>
       <c r="D746" s="34"/>
@@ -18306,7 +18226,7 @@
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A747" s="34" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B747" s="34"/>
       <c r="D747" s="34"/>
@@ -18321,7 +18241,7 @@
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A748" s="34" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B748" s="34"/>
       <c r="D748" s="34"/>
@@ -18336,7 +18256,7 @@
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A749" s="34" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B749" s="34"/>
       <c r="D749" s="34"/>
@@ -18351,7 +18271,7 @@
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A750" s="34" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B750" s="34"/>
       <c r="D750" s="34"/>
@@ -18366,7 +18286,7 @@
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A751" s="34" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B751" s="34"/>
       <c r="D751" s="34"/>
@@ -18381,7 +18301,7 @@
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A752" s="34" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B752" s="34"/>
       <c r="D752" s="34"/>
@@ -18395,8 +18315,8 @@
       <c r="L752" s="34"/>
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A753" s="34" t="s">
-        <v>1024</v>
+      <c r="A753" s="34" t="b">
+        <v>1</v>
       </c>
       <c r="B753" s="34"/>
       <c r="D753" s="34"/>
@@ -18411,7 +18331,7 @@
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A754" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B754" s="34"/>
       <c r="D754" s="34"/>
@@ -18425,8 +18345,8 @@
       <c r="L754" s="34"/>
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A755" s="34" t="b">
-        <v>1</v>
+      <c r="A755" s="34" t="s">
+        <v>1027</v>
       </c>
       <c r="B755" s="34"/>
       <c r="D755" s="34"/>
@@ -18441,7 +18361,7 @@
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A756" s="34" t="s">
-        <v>1026</v>
+        <v>678</v>
       </c>
       <c r="B756" s="34"/>
       <c r="D756" s="34"/>
@@ -18456,7 +18376,7 @@
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A757" s="34" t="s">
-        <v>1027</v>
+        <v>679</v>
       </c>
       <c r="B757" s="34"/>
       <c r="D757" s="34"/>
@@ -18471,7 +18391,7 @@
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A758" s="34" t="s">
-        <v>678</v>
+        <v>1028</v>
       </c>
       <c r="B758" s="34"/>
       <c r="D758" s="34"/>
@@ -18486,7 +18406,7 @@
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A759" s="34" t="s">
-        <v>679</v>
+        <v>1029</v>
       </c>
       <c r="B759" s="34"/>
       <c r="D759" s="34"/>
@@ -18501,7 +18421,7 @@
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A760" s="34" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B760" s="34"/>
       <c r="D760" s="34"/>
@@ -18516,7 +18436,7 @@
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A761" s="34" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B761" s="34"/>
       <c r="D761" s="34"/>
@@ -18531,7 +18451,7 @@
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A762" s="34" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B762" s="34"/>
       <c r="D762" s="34"/>
@@ -18546,7 +18466,7 @@
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A763" s="34" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B763" s="34"/>
       <c r="D763" s="34"/>
@@ -18561,7 +18481,7 @@
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A764" s="34" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B764" s="34"/>
       <c r="D764" s="34"/>
@@ -18576,7 +18496,7 @@
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A765" s="34" t="s">
-        <v>1033</v>
+        <v>684</v>
       </c>
       <c r="B765" s="34"/>
       <c r="D765" s="34"/>
@@ -18591,7 +18511,7 @@
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A766" s="34" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B766" s="34"/>
       <c r="D766" s="34"/>
@@ -18606,7 +18526,7 @@
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A767" s="34" t="s">
-        <v>684</v>
+        <v>1036</v>
       </c>
       <c r="B767" s="34"/>
       <c r="D767" s="34"/>
@@ -18621,7 +18541,7 @@
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A768" s="34" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B768" s="34"/>
       <c r="D768" s="34"/>
@@ -18636,7 +18556,7 @@
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A769" s="34" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B769" s="34"/>
       <c r="D769" s="34"/>
@@ -18651,7 +18571,7 @@
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A770" s="34" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B770" s="34"/>
       <c r="D770" s="34"/>
@@ -18666,7 +18586,7 @@
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A771" s="34" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B771" s="34"/>
       <c r="D771" s="34"/>
@@ -18681,7 +18601,7 @@
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A772" s="34" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B772" s="34"/>
       <c r="D772" s="34"/>
@@ -18696,7 +18616,7 @@
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A773" s="34" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B773" s="34"/>
       <c r="D773" s="34"/>
@@ -18711,7 +18631,7 @@
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A774" s="34" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B774" s="34"/>
       <c r="D774" s="34"/>
@@ -18726,7 +18646,7 @@
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A775" s="34" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B775" s="34"/>
       <c r="D775" s="34"/>
@@ -18741,7 +18661,7 @@
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A776" s="34" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B776" s="34"/>
       <c r="D776" s="34"/>
@@ -18756,7 +18676,7 @@
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A777" s="34" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B777" s="34"/>
       <c r="D777" s="34"/>
@@ -18771,7 +18691,7 @@
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A778" s="34" t="s">
-        <v>1045</v>
+        <v>689</v>
       </c>
       <c r="B778" s="34"/>
       <c r="D778" s="34"/>
@@ -18786,7 +18706,7 @@
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A779" s="34" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B779" s="34"/>
       <c r="D779" s="34"/>
@@ -18801,7 +18721,7 @@
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A780" s="34" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B780" s="34"/>
       <c r="D780" s="34"/>
@@ -18816,7 +18736,7 @@
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A781" s="34" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B781" s="34"/>
       <c r="D781" s="34"/>
@@ -18831,7 +18751,7 @@
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A782" s="34" t="s">
-        <v>690</v>
+        <v>1049</v>
       </c>
       <c r="B782" s="34"/>
       <c r="D782" s="34"/>
@@ -18846,7 +18766,7 @@
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A783" s="34" t="s">
-        <v>1048</v>
+        <v>692</v>
       </c>
       <c r="B783" s="34"/>
       <c r="D783" s="34"/>
@@ -18861,7 +18781,7 @@
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A784" s="34" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B784" s="34"/>
       <c r="D784" s="34"/>
@@ -18876,7 +18796,7 @@
     </row>
     <row r="785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A785" s="34" t="s">
-        <v>692</v>
+        <v>1051</v>
       </c>
       <c r="B785" s="34"/>
       <c r="D785" s="34"/>
@@ -18891,7 +18811,7 @@
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A786" s="34" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B786" s="34"/>
       <c r="D786" s="34"/>
@@ -18906,7 +18826,7 @@
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A787" s="34" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B787" s="34"/>
       <c r="D787" s="34"/>
@@ -18921,7 +18841,7 @@
     </row>
     <row r="788" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A788" s="34" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B788" s="34"/>
       <c r="D788" s="34"/>
@@ -18936,7 +18856,7 @@
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A789" s="34" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B789" s="34"/>
       <c r="D789" s="34"/>
@@ -18951,7 +18871,7 @@
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790" s="34" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B790" s="34"/>
       <c r="D790" s="34"/>
@@ -18966,7 +18886,7 @@
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791" s="34" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B791" s="34"/>
       <c r="D791" s="34"/>
@@ -18981,7 +18901,7 @@
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A792" s="34" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B792" s="34"/>
       <c r="D792" s="34"/>
@@ -18996,7 +18916,7 @@
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793" s="34" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B793" s="34"/>
       <c r="D793" s="34"/>
@@ -19011,7 +18931,7 @@
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A794" s="34" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B794" s="34"/>
       <c r="D794" s="34"/>
@@ -19026,7 +18946,7 @@
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795" s="34" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B795" s="34"/>
       <c r="D795" s="34"/>
@@ -19041,7 +18961,7 @@
     </row>
     <row r="796" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A796" s="34" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B796" s="34"/>
       <c r="D796" s="34"/>
@@ -19056,7 +18976,7 @@
     </row>
     <row r="797" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A797" s="34" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B797" s="34"/>
       <c r="D797" s="34"/>
@@ -19069,48 +18989,18 @@
       <c r="K797" s="34"/>
       <c r="L797" s="34"/>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A798" s="34" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B798" s="34"/>
-      <c r="D798" s="34"/>
-      <c r="E798" s="34"/>
-      <c r="F798" s="34"/>
-      <c r="G798" s="34"/>
-      <c r="H798" s="34"/>
-      <c r="I798" s="34"/>
-      <c r="J798" s="34"/>
-      <c r="K798" s="34"/>
-      <c r="L798" s="34"/>
-    </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A799" s="34" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B799" s="34"/>
-      <c r="D799" s="34"/>
-      <c r="E799" s="34"/>
-      <c r="F799" s="34"/>
-      <c r="G799" s="34"/>
-      <c r="H799" s="34"/>
-      <c r="I799" s="34"/>
-      <c r="J799" s="34"/>
-      <c r="K799" s="34"/>
-      <c r="L799" s="34"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A86">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A77:A84">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A78:A86">
-      <formula1>LEN(A78)=LEN(SUBSTITUTE(A78," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A76:A84">
+      <formula1>LEN(A76)=LEN(SUBSTITUTE(A76," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B78 B80:B89"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B76 B78:B87"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
